--- a/trunk/交易紀錄/購屋款項.xlsx
+++ b/trunk/交易紀錄/購屋款項.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
+    <sheet name="交屋後明細" sheetId="6" r:id="rId2"/>
+    <sheet name="交屋前支出" sheetId="7" r:id="rId3"/>
+    <sheet name="借款" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$G$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>頭期款2成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,7 +54,322 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手續費</t>
+    <t>吳媽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇媽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地印花稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建物印花稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貸款差額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯款手續費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登記費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影印費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謄本費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代刻印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地轉移登記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建物轉移登記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵押權設定登記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>履保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳管費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火地險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間1月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間1月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間預收租金+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大門感應器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費12/1~1/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費1月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結餘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費1/5~1/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間2月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸(銀行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遷戶口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸(自付)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸(自付)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間2月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費12~2月</t>
+  </si>
+  <si>
+    <t>管理費12~2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費12~2月(剩錢)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各出2千5剩餘的錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費3747，機清費300，垃圾費150，寬頻費300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間3月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間3月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費2~3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費4~5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間4月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間4月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間5月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間5月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費2~3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車遙控器電池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間預收租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/1/5~ 2012/6/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/1/5~ 2012/9/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/1/5~ 2012/7/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/6/9~2013/6/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費3~5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費6~7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間6月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電磁爐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電視</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理浴室水龍頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車車位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,8 +377,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -109,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -123,6 +440,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,37 +813,1328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" customHeight="1">
+      <c r="B1" s="6"/>
+      <c r="C1" s="2">
+        <f>SUBTOTAL(9,C3:C304)</f>
+        <v>158507</v>
+      </c>
+      <c r="D1" s="6">
+        <f>SUBTOTAL(9,D3:D304)</f>
+        <v>276591</v>
+      </c>
+      <c r="E1" s="6">
+        <f>D1-C1</f>
+        <v>118084</v>
+      </c>
+      <c r="F1" s="6">
+        <f>SUBTOTAL(9,F3:F304)</f>
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6">
+        <v>41533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6">
+        <v>11000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6">
+        <v>11000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6">
+        <v>13000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>40914</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>40922</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>40928</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>40938</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>40942</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>40943</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>40945</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>40947</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>40973</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>40974</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>40974</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>40974</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>40982</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>40998</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>41004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>41005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>41005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>41009</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>41012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>41032</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>41036</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>41036</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>41037</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>41040</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>41048</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>41051</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="6">
+        <v>11600</v>
+      </c>
+      <c r="F37" s="6">
+        <v>11600</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>41051</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="6">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>41053</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="2">
+        <v>11000</v>
+      </c>
+      <c r="F44" s="6">
+        <v>-11000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E1" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="10.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="C1" s="2">
+        <f>SUBTOTAL(9,C3:C306)</f>
+        <v>148010</v>
+      </c>
+      <c r="D1" s="6">
+        <f>SUBTOTAL(9,D3:D306)</f>
+        <v>174991</v>
+      </c>
+      <c r="E1" s="6">
+        <f>D1-C1</f>
+        <v>26981</v>
+      </c>
+      <c r="F1" s="6">
+        <f>SUBTOTAL(9,F3:F306)</f>
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6">
+        <v>41533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>40914</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>40922</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>40928</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>40938</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>40942</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>40943</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>40945</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>40947</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2">
+        <v>503</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>40973</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>40974</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>40974</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>40974</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>40982</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>40998</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>41004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>41005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>41005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>41009</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>41012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>41032</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>41036</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>41036</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>41037</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>41040</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>41048</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>41051</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="6">
+        <v>11600</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>41051</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="6">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>41053</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="6">
+        <v>-11000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E1" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C16)</f>
-        <v>1376060</v>
+        <f>SUBTOTAL(9,C3:C300)</f>
+        <v>1937798</v>
       </c>
       <c r="D1" s="2">
-        <f>SUBTOTAL(9,D3:D16)</f>
-        <v>840060</v>
+        <f>SUBTOTAL(9,D3:D300)</f>
+        <v>971798</v>
       </c>
       <c r="E1" s="2">
-        <f>SUBTOTAL(9,E3:E15)</f>
-        <v>536000</v>
+        <f>SUBTOTAL(9,E3:E300)</f>
+        <v>591000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -528,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
@@ -556,7 +2173,7 @@
         <v>40881</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>1250000</v>
@@ -581,7 +2198,7 @@
         <v>40883</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>30</v>
@@ -606,7 +2223,7 @@
         <v>40886</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>30</v>
@@ -617,16 +2234,249 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>40892</v>
+        <v>40901</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>125000</v>
       </c>
       <c r="D9" s="2">
-        <v>125000</v>
+        <v>105000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>40904</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>40904</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>40904</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2339</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>32334</v>
+      </c>
+      <c r="D13" s="2">
+        <v>22334</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>626</v>
+      </c>
+      <c r="D14" s="2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>538</v>
+      </c>
+      <c r="D15" s="2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6383</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>500</v>
+      </c>
+      <c r="D18" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1858</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>500000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
@@ -636,28 +2486,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1">
+        <f>SUBTOTAL(9,D3:D300)</f>
+        <v>-300000</v>
+      </c>
+      <c r="E1">
+        <f>SUBTOTAL(9,E3:E300)</f>
+        <v>-75000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40900</v>
+      </c>
+      <c r="D3">
+        <v>-400000</v>
+      </c>
+      <c r="E3">
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40926</v>
+      </c>
+      <c r="D4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40945</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40969</v>
+      </c>
+      <c r="E6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40979</v>
+      </c>
+      <c r="E7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1">
+        <v>41033</v>
+      </c>
+      <c r="E8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>41033</v>
+      </c>
+      <c r="D9">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>41061</v>
+      </c>
+      <c r="E10">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/trunk/交易紀錄/購屋款項.xlsx
+++ b/trunk/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -13,15 +13,15 @@
     <sheet name="借款" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$G$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="157">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,18 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2012/1/5~ 2012/9/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租約 2012/1/5~ 2012/7/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租約 2012/6/9~2013/6/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電費3月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,11 +353,299 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修理浴室水龍頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>機車車位</t>
+    <t>第1間修理浴室水龍頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間修理浴室水龍頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間機車車位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間電視遙控器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4號電池4顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間冷氣遙控器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔布2條</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間7月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間燈泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間8月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費8~9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間9月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費6~8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付3.5.7.9月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/9/6~ 2013/9/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間10月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間11月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費10~11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費9~11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地價稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費12~1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間12月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費12月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打掃器具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗戶249，掃把349，畚斗999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/1/5~ 2013/2/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付3.5.7.9.11.1~2/5電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床墊2個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2013/2/18~2013/6/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>353號15樓第四台費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付2012、2013年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付3.5~6/7電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口罩20，小蘇打粉279，藍藍香99，白醋82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間3月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間4月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費3~5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間5月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2013/2/18~2013/6/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費6~7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/9/6~ 2013/9/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2013/6/9~2014/6/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2013/6/9~2014/6/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間預收租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付7.9.11.1.3.5月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付3.5~6/19電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間預收租金+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間預收租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間機車車位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2013/7/1~2014/6/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白醋81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打第3間臥房鑰匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四台線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費8~9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費8月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +657,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,8 +673,22 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +698,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +746,21 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,41 +1124,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
-      <c r="B1" s="6"/>
+      <c r="B1" s="6">
+        <f>C1-11000-13000+503-13000</f>
+        <v>538441</v>
+      </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C304)</f>
-        <v>158507</v>
+        <f>SUBTOTAL(9,C3:C345)</f>
+        <v>574938</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D304)</f>
-        <v>276591</v>
+        <f>SUBTOTAL(9,D3:D345)</f>
+        <v>752098</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>118084</v>
+        <v>177160</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F304)</f>
-        <v>35600</v>
+        <f>SUBTOTAL(9,F3:F345)</f>
+        <v>36200</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -914,8 +1228,8 @@
       <c r="F5" s="6">
         <v>11000</v>
       </c>
-      <c r="G5" t="s">
-        <v>70</v>
+      <c r="G5" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -931,8 +1245,8 @@
       <c r="F6" s="6">
         <v>13000</v>
       </c>
-      <c r="G6" t="s">
-        <v>71</v>
+      <c r="G6" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1130,7 +1444,7 @@
         <v>40982</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2">
         <v>2657</v>
@@ -1196,7 +1510,7 @@
         <v>41012</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2">
         <v>256</v>
@@ -1251,7 +1565,7 @@
         <v>41040</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2">
         <v>2902</v>
@@ -1281,8 +1595,8 @@
       <c r="F37" s="6">
         <v>11600</v>
       </c>
-      <c r="G37" t="s">
-        <v>72</v>
+      <c r="G37" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1301,7 +1615,7 @@
         <v>41053</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2">
         <v>3493</v>
@@ -1312,7 +1626,7 @@
         <v>41060</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2">
         <v>4497</v>
@@ -1345,7 +1659,7 @@
         <v>41065</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D43" s="6">
         <v>6000</v>
@@ -1365,7 +1679,7 @@
         <v>-11000</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1373,7 +1687,7 @@
         <v>41067</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D45" s="6">
         <v>750</v>
@@ -1384,7 +1698,7 @@
         <v>41067</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D46" s="6">
         <v>2750</v>
@@ -1395,60 +1709,1155 @@
         <v>41067</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2">
         <v>1600</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1"/>
+      <c r="A48" s="1">
+        <v>41068</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>41069</v>
+      </c>
       <c r="B51" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="6">
+      <c r="C51" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="6">
         <v>1200</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="2">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>41073</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="B53" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="10">
+        <v>110</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>41096</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>41096</v>
+      </c>
+      <c r="B59" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C59" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>41101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>41103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="B54" t="s">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>41124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>41128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>41128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>41134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>41164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>41164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>41170</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>41172</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="6">
+        <v>3436</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>41172</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="6">
+        <v>62300</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="2">
+        <v>22173</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>41218</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>41221</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>41225</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>41231</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>41242</v>
+      </c>
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>41247</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>41248</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>41248</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>41256</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>41257</v>
+      </c>
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>41278</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>41281</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>41281</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>41282</v>
+      </c>
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>41285</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="2">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>41286</v>
+      </c>
+      <c r="B94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" s="2">
+        <v>13000</v>
+      </c>
+      <c r="F98" s="6">
+        <v>-13000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D100" s="6">
+        <v>7433</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>41318</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>41318</v>
+      </c>
+      <c r="B103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>41320</v>
+      </c>
+      <c r="B104" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" s="6">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>41322</v>
+      </c>
+      <c r="B105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" s="2">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>41322</v>
+      </c>
+      <c r="B106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>41323</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="6">
+        <v>13000</v>
+      </c>
+      <c r="F107" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>41323</v>
+      </c>
+      <c r="B108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>41345</v>
+      </c>
+      <c r="B111" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>41346</v>
+      </c>
+      <c r="B112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>41353</v>
+      </c>
+      <c r="B113" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>41370</v>
+      </c>
+      <c r="B114" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>41373</v>
+      </c>
+      <c r="B115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>41373</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A117" s="1">
+        <v>41377</v>
+      </c>
+      <c r="B117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>41386</v>
+      </c>
+      <c r="B118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>41401</v>
+      </c>
+      <c r="B119" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>41401</v>
+      </c>
+      <c r="B120" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>41408</v>
+      </c>
+      <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="2">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>41418</v>
+      </c>
+      <c r="B122" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" s="2">
+        <v>5901</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>41430</v>
+      </c>
+      <c r="B125" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>41430</v>
+      </c>
+      <c r="B126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>41435</v>
+      </c>
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>41440</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129" s="6">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B130" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="6">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B133" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="2">
+        <v>13000</v>
+      </c>
+      <c r="F133" s="6">
+        <v>-13000</v>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B134" t="s">
+        <v>118</v>
+      </c>
+      <c r="D134" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B135" t="s">
+        <v>119</v>
+      </c>
+      <c r="D135" s="6">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B136" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" s="2">
         <v>81</v>
       </c>
-      <c r="C54" s="2">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="B55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="2">
-        <v>7500</v>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B137" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B138" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+      <c r="D139" s="6">
+        <v>13600</v>
+      </c>
+      <c r="F139" s="6">
+        <v>13600</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B140" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" s="6">
+        <v>74800</v>
+      </c>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>41460</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+      <c r="D142" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>41460</v>
+      </c>
+      <c r="B143" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>41466</v>
+      </c>
+      <c r="B144" t="s">
+        <v>154</v>
+      </c>
+      <c r="C144" s="2">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B145" t="s">
+        <v>155</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>41487</v>
+      </c>
+      <c r="B146" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>41491</v>
+      </c>
+      <c r="B147" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>41491</v>
+      </c>
+      <c r="B148" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="2">
+        <v>22173</v>
       </c>
     </row>
   </sheetData>
@@ -1463,11 +2872,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1477,25 +2886,25 @@
     <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C306)</f>
-        <v>148010</v>
+        <f>SUBTOTAL(9,C3:C350)</f>
+        <v>538441</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D306)</f>
-        <v>174991</v>
+        <f>SUBTOTAL(9,D3:D350)</f>
+        <v>483898</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>26981</v>
+        <v>-54543</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F306)</f>
-        <v>35600</v>
+        <f>SUBTOTAL(9,F3:F350)</f>
+        <v>36200</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1556,8 +2965,8 @@
       <c r="F5" s="6">
         <v>11000</v>
       </c>
-      <c r="G5" t="s">
-        <v>70</v>
+      <c r="G5" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1570,8 +2979,8 @@
       <c r="F6" s="6">
         <v>13000</v>
       </c>
-      <c r="G6" t="s">
-        <v>71</v>
+      <c r="G6" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1772,7 +3181,7 @@
         <v>40982</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2">
         <v>2657</v>
@@ -1839,7 +3248,7 @@
         <v>41012</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2">
         <v>256</v>
@@ -1895,7 +3304,7 @@
         <v>41040</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2">
         <v>2902</v>
@@ -1922,8 +3331,8 @@
       <c r="F37" s="6">
         <v>11600</v>
       </c>
-      <c r="G37" t="s">
-        <v>72</v>
+      <c r="G37" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1942,7 +3351,7 @@
         <v>41053</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2">
         <v>3493</v>
@@ -1953,7 +3362,7 @@
         <v>41060</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2">
         <v>4497</v>
@@ -1990,7 +3399,7 @@
         <v>41065</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D43" s="6">
         <v>6000</v>
@@ -2007,7 +3416,7 @@
         <v>-11000</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2015,7 +3424,7 @@
         <v>41067</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D45" s="6">
         <v>750</v>
@@ -2026,10 +3435,13 @@
         <v>41067</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D46" s="6">
         <v>2750</v>
+      </c>
+      <c r="G46" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2037,59 +3449,1181 @@
         <v>41067</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2">
         <v>1600</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="A48" s="1">
+        <v>41068</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>41069</v>
+      </c>
       <c r="B51" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="6">
+      <c r="C51" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="6">
         <v>1200</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="2">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>41073</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="B53" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="10">
+        <v>110</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>41096</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>41096</v>
+      </c>
+      <c r="B59" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C59" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>41101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>41103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="B54" t="s">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>41124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>41128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>41128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1">
+        <v>41134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>41164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
+        <v>41164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>41170</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>41172</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="6">
+        <v>3436</v>
+      </c>
+      <c r="G72" t="s">
+        <v>100</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>41172</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="6">
+        <v>62300</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="2">
+        <v>12173</v>
+      </c>
+      <c r="J75" s="2"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>41218</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>41221</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>41225</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>41231</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>41242</v>
+      </c>
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>41247</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>41248</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>41248</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>41256</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>41257</v>
+      </c>
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>41278</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>41281</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>41281</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>41282</v>
+      </c>
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>41285</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="2">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>41286</v>
+      </c>
+      <c r="B94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1597</v>
+      </c>
+      <c r="G94" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="F98" s="6">
+        <v>-13000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D100" s="6">
+        <v>7433</v>
+      </c>
+      <c r="G100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>41318</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>41318</v>
+      </c>
+      <c r="B103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="12">
+        <v>480</v>
+      </c>
+      <c r="G103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>41320</v>
+      </c>
+      <c r="B104" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" s="6">
+        <v>13200</v>
+      </c>
+      <c r="G104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>41322</v>
+      </c>
+      <c r="B105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" s="2">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>41322</v>
+      </c>
+      <c r="B106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>41323</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>41323</v>
+      </c>
+      <c r="B108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>41345</v>
+      </c>
+      <c r="B111" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>41346</v>
+      </c>
+      <c r="B112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G112" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>41353</v>
+      </c>
+      <c r="B113" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>41370</v>
+      </c>
+      <c r="B114" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>41373</v>
+      </c>
+      <c r="B115" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>41373</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>41377</v>
+      </c>
+      <c r="B117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
+        <v>41386</v>
+      </c>
+      <c r="B118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>41401</v>
+      </c>
+      <c r="B119" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>41401</v>
+      </c>
+      <c r="B120" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>41408</v>
+      </c>
+      <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="2">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>41418</v>
+      </c>
+      <c r="B122" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" s="2">
+        <v>5901</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>41430</v>
+      </c>
+      <c r="B125" t="s">
+        <v>49</v>
+      </c>
+      <c r="C125" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>41430</v>
+      </c>
+      <c r="B126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>41435</v>
+      </c>
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>41440</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G128" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129" s="6">
+        <v>6230</v>
+      </c>
+      <c r="G129" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B130" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="6">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B133" t="s">
+        <v>145</v>
+      </c>
+      <c r="F133" s="6">
+        <v>-13000</v>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B134" t="s">
+        <v>118</v>
+      </c>
+      <c r="D134" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B135" t="s">
+        <v>119</v>
+      </c>
+      <c r="D135" s="6">
+        <v>4158</v>
+      </c>
+      <c r="G135" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B136" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" s="2">
         <v>81</v>
       </c>
-      <c r="C54" s="2">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="B55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="2">
-        <v>7500</v>
+      <c r="G136" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B137" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B138" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+      <c r="F139" s="6">
+        <v>13600</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B140" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" s="6">
+        <v>74800</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>41460</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>41460</v>
+      </c>
+      <c r="B143" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>41466</v>
+      </c>
+      <c r="B144" t="s">
+        <v>154</v>
+      </c>
+      <c r="C144" s="2">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B145" t="s">
+        <v>155</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>41487</v>
+      </c>
+      <c r="B146" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>41491</v>
+      </c>
+      <c r="B147" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>41491</v>
+      </c>
+      <c r="B148" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="2">
+        <v>12173</v>
       </c>
     </row>
   </sheetData>
@@ -2107,8 +4641,8 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2130,11 +4664,11 @@
       </c>
       <c r="D1" s="2">
         <f>SUBTOTAL(9,D3:D300)</f>
-        <v>971798</v>
+        <v>1221798</v>
       </c>
       <c r="E1" s="2">
         <f>SUBTOTAL(9,E3:E300)</f>
-        <v>591000</v>
+        <v>661000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2473,10 +5007,10 @@
         <v>500000</v>
       </c>
       <c r="D25" s="2">
-        <v>100000</v>
+        <v>350000</v>
       </c>
       <c r="E25" s="2">
-        <v>25000</v>
+        <v>95000</v>
       </c>
     </row>
   </sheetData>
@@ -2488,10 +5022,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2503,12 +5037,12 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="D1">
-        <f>SUBTOTAL(9,D3:D300)</f>
-        <v>-300000</v>
+        <f>SUBTOTAL(9,D3:D302)</f>
+        <v>-50000</v>
       </c>
       <c r="E1">
-        <f>SUBTOTAL(9,E3:E300)</f>
-        <v>-75000</v>
+        <f>SUBTOTAL(9,E3:E302)</f>
+        <v>-5000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2614,6 +5148,215 @@
       </c>
       <c r="E10">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>41093</v>
+      </c>
+      <c r="E11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>41127</v>
+      </c>
+      <c r="E12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>41138</v>
+      </c>
+      <c r="D13">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>41158</v>
+      </c>
+      <c r="E14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>41184</v>
+      </c>
+      <c r="E15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>41214</v>
+      </c>
+      <c r="E16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>41218</v>
+      </c>
+      <c r="D17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>41248</v>
+      </c>
+      <c r="E18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>41284</v>
+      </c>
+      <c r="E19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>41306</v>
+      </c>
+      <c r="E20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>41311</v>
+      </c>
+      <c r="D21">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>41338</v>
+      </c>
+      <c r="E22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>41365</v>
+      </c>
+      <c r="E23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>41396</v>
+      </c>
+      <c r="E24">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>41397</v>
+      </c>
+      <c r="D25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>41428</v>
+      </c>
+      <c r="E26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>41463</v>
+      </c>
+      <c r="E27">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>41487</v>
+      </c>
+      <c r="E28">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>41487</v>
+      </c>
+      <c r="D29">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/交易紀錄/購屋款項.xlsx
+++ b/trunk/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="163">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,10 +425,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2012/9/6~ 2013/9/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水費10月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,10 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2012/9/6~ 2013/9/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租約 2013/6/9~2014/6/8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,6 +638,38 @@
   </si>
   <si>
     <t>水費8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2013/9/6~ 2014/9/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付11.1.3.5.7月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間電費+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付7.9月電費，7.8.9月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地價稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付11月電費，10.11月水費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,11 +1148,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G153" sqref="G153"/>
+      <pane ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1145,22 +1169,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000</f>
-        <v>538441</v>
+        <v>648314</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C345)</f>
-        <v>574938</v>
+        <f>SUBTOTAL(9,C3:C350)</f>
+        <v>684811</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D345)</f>
-        <v>752098</v>
+        <f>SUBTOTAL(9,D3:D350)</f>
+        <v>865337</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>177160</v>
+        <v>180526</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F345)</f>
+        <f>SUBTOTAL(9,F3:F350)</f>
         <v>36200</v>
       </c>
     </row>
@@ -1229,7 +1253,7 @@
         <v>11000</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1246,7 +1270,7 @@
         <v>13000</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1596,7 +1620,7 @@
         <v>11600</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2037,7 +2061,7 @@
         <v>41187</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D76" s="6">
         <v>6000</v>
@@ -2048,7 +2072,7 @@
         <v>41218</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" s="6">
         <v>6000</v>
@@ -2081,7 +2105,7 @@
         <v>41221</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2">
         <v>2200</v>
@@ -2092,7 +2116,7 @@
         <v>41225</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2">
         <v>2869</v>
@@ -2103,7 +2127,7 @@
         <v>41231</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2">
         <v>361</v>
@@ -2114,7 +2138,7 @@
         <v>41242</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2">
         <v>250</v>
@@ -2125,7 +2149,7 @@
         <v>41247</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D84" s="6">
         <v>6000</v>
@@ -2158,7 +2182,7 @@
         <v>41256</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C87" s="2">
         <v>440</v>
@@ -2169,7 +2193,7 @@
         <v>41257</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2">
         <v>4497</v>
@@ -2213,7 +2237,7 @@
         <v>41282</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2">
         <v>2200</v>
@@ -2224,7 +2248,7 @@
         <v>41285</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2">
         <v>4062</v>
@@ -2235,7 +2259,7 @@
         <v>41286</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2">
         <v>1597</v>
@@ -2279,7 +2303,7 @@
         <v>41310</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2">
         <v>13000</v>
@@ -2296,7 +2320,7 @@
         <v>41310</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D99" s="6">
         <v>1950</v>
@@ -2307,7 +2331,7 @@
         <v>41310</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D100" s="6">
         <v>7433</v>
@@ -2329,7 +2353,7 @@
         <v>41318</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="2">
         <v>539</v>
@@ -2340,7 +2364,7 @@
         <v>41318</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C103" s="2">
         <v>480</v>
@@ -2351,7 +2375,7 @@
         <v>41320</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D104" s="6">
         <v>13200</v>
@@ -2362,7 +2386,7 @@
         <v>41322</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C105" s="2">
         <v>5380</v>
@@ -2373,7 +2397,7 @@
         <v>41322</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C106" s="2">
         <v>1279</v>
@@ -2393,7 +2417,7 @@
         <v>13000</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2434,7 +2458,7 @@
         <v>41345</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2">
         <v>2722</v>
@@ -2456,7 +2480,7 @@
         <v>41353</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D113" s="6">
         <v>6500</v>
@@ -2500,7 +2524,7 @@
         <v>41377</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="2">
         <v>370</v>
@@ -2511,7 +2535,7 @@
         <v>41386</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" s="6">
         <v>6500</v>
@@ -2544,7 +2568,7 @@
         <v>41408</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" s="2">
         <v>4392</v>
@@ -2555,7 +2579,7 @@
         <v>41418</v>
       </c>
       <c r="B122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D122" s="6">
         <v>6500</v>
@@ -2577,7 +2601,7 @@
         <v>41426</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C124" s="2">
         <v>568</v>
@@ -2610,7 +2634,7 @@
         <v>41435</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" s="2">
         <v>2200</v>
@@ -2621,7 +2645,7 @@
         <v>41440</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2">
         <v>4497</v>
@@ -2632,7 +2656,7 @@
         <v>41441</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D129" s="6">
         <v>6230</v>
@@ -2643,7 +2667,7 @@
         <v>41441</v>
       </c>
       <c r="B130" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D130" s="6">
         <v>1800</v>
@@ -2654,7 +2678,7 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D131" s="6">
         <v>63800</v>
@@ -2676,7 +2700,7 @@
         <v>41444</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C133" s="2">
         <v>13000</v>
@@ -2693,7 +2717,7 @@
         <v>41444</v>
       </c>
       <c r="B134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D134" s="6">
         <v>600</v>
@@ -2704,7 +2728,7 @@
         <v>41444</v>
       </c>
       <c r="B135" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D135" s="6">
         <v>4158</v>
@@ -2715,7 +2739,7 @@
         <v>41450</v>
       </c>
       <c r="B136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2">
         <v>81</v>
@@ -2726,7 +2750,7 @@
         <v>41450</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C137" s="2">
         <v>124</v>
@@ -2737,7 +2761,7 @@
         <v>41450</v>
       </c>
       <c r="B138" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C138" s="2">
         <v>20</v>
@@ -2748,7 +2772,7 @@
         <v>41451</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D139" s="6">
         <v>13600</v>
@@ -2757,7 +2781,7 @@
         <v>13600</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -2765,7 +2789,7 @@
         <v>41451</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D140" s="6">
         <v>74800</v>
@@ -2777,7 +2801,7 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D141" s="6">
         <v>1200</v>
@@ -2810,7 +2834,7 @@
         <v>41466</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C144" s="2">
         <v>4526</v>
@@ -2821,7 +2845,7 @@
         <v>41486</v>
       </c>
       <c r="B145" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C145" s="2">
         <v>2200</v>
@@ -2832,7 +2856,7 @@
         <v>41487</v>
       </c>
       <c r="B146" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C146" s="2">
         <v>489</v>
@@ -2858,6 +2882,227 @@
       </c>
       <c r="C148" s="2">
         <v>22173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B149" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B150" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>41528</v>
+      </c>
+      <c r="B151" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" s="2">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>41532</v>
+      </c>
+      <c r="B152" t="s">
+        <v>99</v>
+      </c>
+      <c r="C152" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B153" t="s">
+        <v>96</v>
+      </c>
+      <c r="D153" s="2">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B154" t="s">
+        <v>32</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6">
+        <v>62300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B155" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155" s="6">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>41549</v>
+      </c>
+      <c r="B157" t="s">
+        <v>104</v>
+      </c>
+      <c r="C157" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>41552</v>
+      </c>
+      <c r="B158" t="s">
+        <v>49</v>
+      </c>
+      <c r="D158" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>41552</v>
+      </c>
+      <c r="B159" t="s">
+        <v>45</v>
+      </c>
+      <c r="C159" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B160" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B161" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>41590</v>
+      </c>
+      <c r="B162" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" s="2">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>41607</v>
+      </c>
+      <c r="B163" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B164" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B165" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B166" t="s">
+        <v>157</v>
+      </c>
+      <c r="D166" s="6">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B167" t="s">
+        <v>110</v>
+      </c>
+      <c r="C167" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>41623</v>
+      </c>
+      <c r="B168" t="s">
+        <v>106</v>
+      </c>
+      <c r="C168" s="2">
+        <v>4497</v>
       </c>
     </row>
   </sheetData>
@@ -2872,11 +3117,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2891,19 +3136,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C350)</f>
-        <v>538441</v>
+        <f>SUBTOTAL(9,C3:C355)</f>
+        <v>648314</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D350)</f>
-        <v>483898</v>
+        <f>SUBTOTAL(9,D3:D355)</f>
+        <v>557137</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-54543</v>
+        <v>-91177</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F350)</f>
+        <f>SUBTOTAL(9,F3:F355)</f>
         <v>36200</v>
       </c>
     </row>
@@ -2966,7 +3211,7 @@
         <v>11000</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2980,7 +3225,7 @@
         <v>13000</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3332,7 +3577,7 @@
         <v>11600</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3441,7 +3686,7 @@
         <v>2750</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3747,7 +3992,7 @@
         <v>41172</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D73" s="6">
         <v>62300</v>
@@ -3786,7 +4031,7 @@
         <v>41187</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D76" s="6">
         <v>6000</v>
@@ -3797,7 +4042,7 @@
         <v>41218</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" s="6">
         <v>6000</v>
@@ -3830,7 +4075,7 @@
         <v>41221</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2">
         <v>2200</v>
@@ -3841,7 +4086,7 @@
         <v>41225</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2">
         <v>2869</v>
@@ -3852,7 +4097,7 @@
         <v>41231</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2">
         <v>361</v>
@@ -3863,7 +4108,7 @@
         <v>41242</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2">
         <v>250</v>
@@ -3874,7 +4119,7 @@
         <v>41247</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D84" s="6">
         <v>6000</v>
@@ -3907,7 +4152,7 @@
         <v>41256</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C87" s="2">
         <v>440</v>
@@ -3918,7 +4163,7 @@
         <v>41257</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2">
         <v>4497</v>
@@ -3965,7 +4210,7 @@
         <v>41282</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2">
         <v>2200</v>
@@ -3976,7 +4221,7 @@
         <v>41285</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2">
         <v>4062</v>
@@ -3987,13 +4232,13 @@
         <v>41286</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2">
         <v>1597</v>
       </c>
       <c r="G94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4034,7 +4279,7 @@
         <v>41310</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F98" s="6">
         <v>-13000</v>
@@ -4048,7 +4293,7 @@
         <v>41310</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D99" s="6">
         <v>1950</v>
@@ -4059,13 +4304,13 @@
         <v>41310</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D100" s="6">
         <v>7433</v>
       </c>
       <c r="G100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4084,7 +4329,7 @@
         <v>41318</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="2">
         <v>539</v>
@@ -4095,13 +4340,13 @@
         <v>41318</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C103" s="12">
         <v>480</v>
       </c>
       <c r="G103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4109,13 +4354,13 @@
         <v>41320</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D104" s="6">
         <v>13200</v>
       </c>
       <c r="G104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4123,7 +4368,7 @@
         <v>41322</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C105" s="2">
         <v>5380</v>
@@ -4134,7 +4379,7 @@
         <v>41322</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C106" s="2">
         <v>1279</v>
@@ -4151,7 +4396,7 @@
         <v>13000</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4192,7 +4437,7 @@
         <v>41345</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2">
         <v>2722</v>
@@ -4217,7 +4462,7 @@
         <v>41353</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D113" s="6">
         <v>6500</v>
@@ -4261,7 +4506,7 @@
         <v>41377</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="2">
         <v>370</v>
@@ -4272,7 +4517,7 @@
         <v>41386</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" s="6">
         <v>6500</v>
@@ -4305,7 +4550,7 @@
         <v>41408</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" s="2">
         <v>4392</v>
@@ -4316,7 +4561,7 @@
         <v>41418</v>
       </c>
       <c r="B122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D122" s="6">
         <v>6500</v>
@@ -4338,7 +4583,7 @@
         <v>41426</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C124" s="2">
         <v>568</v>
@@ -4371,7 +4616,7 @@
         <v>41435</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" s="2">
         <v>2200</v>
@@ -4382,7 +4627,7 @@
         <v>41440</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2">
         <v>4497</v>
@@ -4396,13 +4641,13 @@
         <v>41441</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D129" s="6">
         <v>6230</v>
       </c>
       <c r="G129" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4410,7 +4655,7 @@
         <v>41441</v>
       </c>
       <c r="B130" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D130" s="6">
         <v>1800</v>
@@ -4421,7 +4666,7 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D131" s="6">
         <v>63800</v>
@@ -4443,7 +4688,7 @@
         <v>41444</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F133" s="6">
         <v>-13000</v>
@@ -4457,7 +4702,7 @@
         <v>41444</v>
       </c>
       <c r="B134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D134" s="6">
         <v>600</v>
@@ -4468,13 +4713,13 @@
         <v>41444</v>
       </c>
       <c r="B135" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D135" s="6">
         <v>4158</v>
       </c>
       <c r="G135" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4482,13 +4727,13 @@
         <v>41450</v>
       </c>
       <c r="B136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2">
         <v>81</v>
       </c>
       <c r="G136" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4496,7 +4741,7 @@
         <v>41450</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C137" s="2">
         <v>124</v>
@@ -4507,7 +4752,7 @@
         <v>41450</v>
       </c>
       <c r="B138" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C138" s="2">
         <v>20</v>
@@ -4518,13 +4763,13 @@
         <v>41451</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F139" s="6">
         <v>13600</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4532,7 +4777,7 @@
         <v>41451</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D140" s="6">
         <v>74800</v>
@@ -4543,7 +4788,7 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D141" s="6">
         <v>1200</v>
@@ -4576,35 +4821,35 @@
         <v>41466</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C144" s="2">
         <v>4526</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>41486</v>
       </c>
       <c r="B145" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C145" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>41487</v>
       </c>
       <c r="B146" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C146" s="2">
         <v>489</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>41491</v>
       </c>
@@ -4615,7 +4860,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>41491</v>
       </c>
@@ -4624,6 +4869,242 @@
       </c>
       <c r="C148" s="2">
         <v>12173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B149" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B150" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>41528</v>
+      </c>
+      <c r="B151" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" s="2">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>41532</v>
+      </c>
+      <c r="B152" t="s">
+        <v>99</v>
+      </c>
+      <c r="C152" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G152" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B153" t="s">
+        <v>96</v>
+      </c>
+      <c r="D153" s="2">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B154" t="s">
+        <v>32</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6">
+        <v>62300</v>
+      </c>
+      <c r="G154" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B155" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155" s="6">
+        <v>3324</v>
+      </c>
+      <c r="G155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>41549</v>
+      </c>
+      <c r="B157" t="s">
+        <v>104</v>
+      </c>
+      <c r="C157" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>41552</v>
+      </c>
+      <c r="B158" t="s">
+        <v>49</v>
+      </c>
+      <c r="C158" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>41552</v>
+      </c>
+      <c r="B159" t="s">
+        <v>45</v>
+      </c>
+      <c r="C159" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B160" t="s">
+        <v>49</v>
+      </c>
+      <c r="C160" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B161" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>41590</v>
+      </c>
+      <c r="B162" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" s="2">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>41607</v>
+      </c>
+      <c r="B163" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B164" t="s">
+        <v>49</v>
+      </c>
+      <c r="C164" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B165" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B166" t="s">
+        <v>157</v>
+      </c>
+      <c r="D166" s="6">
+        <v>2698</v>
+      </c>
+      <c r="G166" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B167" t="s">
+        <v>110</v>
+      </c>
+      <c r="C167" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>41623</v>
+      </c>
+      <c r="B168" t="s">
+        <v>106</v>
+      </c>
+      <c r="C168" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G168" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4641,8 +5122,8 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4664,11 +5145,11 @@
       </c>
       <c r="D1" s="2">
         <f>SUBTOTAL(9,D3:D300)</f>
-        <v>1221798</v>
+        <v>1271798</v>
       </c>
       <c r="E1" s="2">
         <f>SUBTOTAL(9,E3:E300)</f>
-        <v>661000</v>
+        <v>666000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5007,10 +5488,10 @@
         <v>500000</v>
       </c>
       <c r="D25" s="2">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="E25" s="2">
-        <v>95000</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -5022,10 +5503,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5038,11 +5519,11 @@
     <row r="1" spans="1:5">
       <c r="D1">
         <f>SUBTOTAL(9,D3:D302)</f>
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E302)</f>
-        <v>-5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5356,6 +5837,28 @@
         <v>41487</v>
       </c>
       <c r="D29">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41518</v>
+      </c>
+      <c r="E30">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>41583</v>
+      </c>
+      <c r="D31">
         <v>50000</v>
       </c>
     </row>

--- a/trunk/交易紀錄/購屋款項.xlsx
+++ b/trunk/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="199">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +670,150 @@
   </si>
   <si>
     <t>付11月電費，10.11月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費12~1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付2014年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付1月電費，12.1月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費12~2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費2~3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付3月電費，2.3月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間燈泡插座鐵絲氧化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間分享器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間熱水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間冷氣壓縮機電容線斷掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付5.6月電費，4.5.6月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗床套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗40，烘50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2014/8/6~ 2015/8/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間8月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間8月水費+機車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費8~9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費6~8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間電費+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付9.11.1.3.5.7.9/6電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間浴室燈泡蓮蓬頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2014/9/6~ 2015/7/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間蓮蓬頭整組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間床墊2個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間椅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打第2間信箱鑰匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間床墊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費150，機車費150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燈泡110，蓮蓬頭200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水桶129，白醋82，手套45，地板刷 79，流理台刷39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流理台刷39</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,17 +1292,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B171" sqref="B171"/>
+      <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="6" customWidth="1"/>
@@ -1168,23 +1312,23 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
-        <f>C1-11000-13000+503-13000</f>
-        <v>648314</v>
+        <f>C1-11000-13000+503-13000-13600-11000</f>
+        <v>909259</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C350)</f>
-        <v>684811</v>
+        <f>SUBTOTAL(9,C3:C391)</f>
+        <v>970356</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D350)</f>
-        <v>865337</v>
+        <f>SUBTOTAL(9,D3:D391)</f>
+        <v>1136362</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>180526</v>
+        <v>166006</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F350)</f>
+        <f>SUBTOTAL(9,F3:F391)</f>
         <v>36200</v>
       </c>
     </row>
@@ -1252,7 +1396,7 @@
       <c r="F5" s="6">
         <v>11000</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2780,7 +2924,7 @@
       <c r="F139" s="6">
         <v>13600</v>
       </c>
-      <c r="G139" s="8" t="s">
+      <c r="G139" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3074,34 +3218,749 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1">
-        <v>41619</v>
+        <v>41614</v>
       </c>
       <c r="B166" t="s">
-        <v>157</v>
-      </c>
-      <c r="D166" s="6">
-        <v>2698</v>
+        <v>163</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2200</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="B167" t="s">
-        <v>110</v>
-      </c>
-      <c r="C167" s="2">
-        <v>529</v>
+        <v>157</v>
+      </c>
+      <c r="D167" s="6">
+        <v>2698</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B168" t="s">
+        <v>110</v>
+      </c>
+      <c r="C168" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>41623</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>106</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C169" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B170" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B171" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B172" t="s">
+        <v>164</v>
+      </c>
+      <c r="C172" s="2">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B173" t="s">
+        <v>123</v>
+      </c>
+      <c r="D173" s="6">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="2">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B175" t="s">
+        <v>49</v>
+      </c>
+      <c r="D175" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B176" t="s">
+        <v>45</v>
+      </c>
+      <c r="C176" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B177" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>41683</v>
+      </c>
+      <c r="B178" t="s">
+        <v>114</v>
+      </c>
+      <c r="C178" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>41694</v>
+      </c>
+      <c r="B179" t="s">
+        <v>157</v>
+      </c>
+      <c r="D179" s="6">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B180" t="s">
+        <v>49</v>
+      </c>
+      <c r="D180" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B181" t="s">
+        <v>45</v>
+      </c>
+      <c r="C181" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>41710</v>
+      </c>
+      <c r="B182" t="s">
+        <v>127</v>
+      </c>
+      <c r="C182" s="2">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>41713</v>
+      </c>
+      <c r="B183" t="s">
+        <v>167</v>
+      </c>
+      <c r="C183" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B184" t="s">
+        <v>157</v>
+      </c>
+      <c r="D184" s="6">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B185" t="s">
+        <v>49</v>
+      </c>
+      <c r="D185" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B186" t="s">
+        <v>45</v>
+      </c>
+      <c r="C186" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>41737</v>
+      </c>
+      <c r="B187" t="s">
+        <v>60</v>
+      </c>
+      <c r="C187" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>41742</v>
+      </c>
+      <c r="B188" t="s">
+        <v>71</v>
+      </c>
+      <c r="C188" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>41765</v>
+      </c>
+      <c r="B189" t="s">
+        <v>49</v>
+      </c>
+      <c r="D189" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>41765</v>
+      </c>
+      <c r="B190" t="s">
+        <v>45</v>
+      </c>
+      <c r="C190" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>41772</v>
+      </c>
+      <c r="B191" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B192" t="s">
+        <v>139</v>
+      </c>
+      <c r="D192" s="2">
+        <v>7734</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B193" t="s">
+        <v>141</v>
+      </c>
+      <c r="D193" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B194" t="s">
+        <v>140</v>
+      </c>
+      <c r="D194" s="2">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B195" t="s">
+        <v>170</v>
+      </c>
+      <c r="C195" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B196" t="s">
+        <v>171</v>
+      </c>
+      <c r="C196" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>41792</v>
+      </c>
+      <c r="B197" t="s">
+        <v>172</v>
+      </c>
+      <c r="C197" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>41795</v>
+      </c>
+      <c r="B198" t="s">
+        <v>49</v>
+      </c>
+      <c r="D198" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>41795</v>
+      </c>
+      <c r="B199" t="s">
+        <v>45</v>
+      </c>
+      <c r="C199" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>41796</v>
+      </c>
+      <c r="B200" t="s">
+        <v>136</v>
+      </c>
+      <c r="C200" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>41799</v>
+      </c>
+      <c r="B201" t="s">
+        <v>132</v>
+      </c>
+      <c r="C201" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B202" t="s">
+        <v>173</v>
+      </c>
+      <c r="C202" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>41803</v>
+      </c>
+      <c r="B203" t="s">
+        <v>74</v>
+      </c>
+      <c r="C203" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B204" t="s">
+        <v>115</v>
+      </c>
+      <c r="C204" s="2">
+        <v>13600</v>
+      </c>
+      <c r="F204" s="6">
+        <v>-13600</v>
+      </c>
+      <c r="G204" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B205" t="s">
+        <v>157</v>
+      </c>
+      <c r="D205" s="6">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>41827</v>
+      </c>
+      <c r="B206" t="s">
+        <v>49</v>
+      </c>
+      <c r="D206" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>41827</v>
+      </c>
+      <c r="B207" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>41830</v>
+      </c>
+      <c r="B208" t="s">
+        <v>92</v>
+      </c>
+      <c r="C208" s="2">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>41832</v>
+      </c>
+      <c r="B209" t="s">
+        <v>175</v>
+      </c>
+      <c r="C209" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>41832</v>
+      </c>
+      <c r="B210" t="s">
+        <v>112</v>
+      </c>
+      <c r="C210" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>41842</v>
+      </c>
+      <c r="B211" t="s">
+        <v>73</v>
+      </c>
+      <c r="C211" s="2">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B212" t="s">
+        <v>49</v>
+      </c>
+      <c r="D212" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B213" t="s">
+        <v>45</v>
+      </c>
+      <c r="C213" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B214" t="s">
+        <v>178</v>
+      </c>
+      <c r="D214" s="6">
+        <v>11000</v>
+      </c>
+      <c r="F214" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B215" t="s">
+        <v>177</v>
+      </c>
+      <c r="D215" s="2">
+        <v>13600</v>
+      </c>
+      <c r="F215" s="6">
+        <v>13600</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B216" t="s">
+        <v>180</v>
+      </c>
+      <c r="D216" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B217" t="s">
+        <v>181</v>
+      </c>
+      <c r="D217" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>41859</v>
+      </c>
+      <c r="B218" t="s">
+        <v>182</v>
+      </c>
+      <c r="C218" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>41864</v>
+      </c>
+      <c r="B219" t="s">
+        <v>93</v>
+      </c>
+      <c r="C219" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>41887</v>
+      </c>
+      <c r="B220" t="s">
+        <v>49</v>
+      </c>
+      <c r="D220" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>41887</v>
+      </c>
+      <c r="B221" t="s">
+        <v>45</v>
+      </c>
+      <c r="C221" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B222" t="s">
+        <v>184</v>
+      </c>
+      <c r="C222" s="2">
+        <v>11000</v>
+      </c>
+      <c r="F222" s="6">
+        <v>-11000</v>
+      </c>
+      <c r="G222" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B223" t="s">
+        <v>96</v>
+      </c>
+      <c r="D223" s="6">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B224" t="s">
+        <v>188</v>
+      </c>
+      <c r="C224" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B225" t="s">
+        <v>32</v>
+      </c>
+      <c r="D225" s="6">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B226" t="s">
+        <v>190</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B227" t="s">
+        <v>193</v>
+      </c>
+      <c r="C227" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B228" t="s">
+        <v>112</v>
+      </c>
+      <c r="C228" s="2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B229" t="s">
+        <v>194</v>
+      </c>
+      <c r="C229" s="2">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B233" t="s">
+        <v>183</v>
+      </c>
+      <c r="C233" s="2">
         <v>4497</v>
       </c>
     </row>
@@ -3117,38 +3976,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K168"/>
+  <dimension ref="A1:K232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A210" sqref="A210:C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C355)</f>
-        <v>648314</v>
+        <f>SUBTOTAL(9,C3:C396)</f>
+        <v>909259</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D355)</f>
-        <v>557137</v>
+        <f>SUBTOTAL(9,D3:D396)</f>
+        <v>713562</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-91177</v>
+        <v>-195697</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F355)</f>
+        <f>SUBTOTAL(9,F3:F396)</f>
         <v>36200</v>
       </c>
     </row>
@@ -3210,7 +4069,7 @@
       <c r="F5" s="6">
         <v>11000</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4368,7 +5227,7 @@
         <v>41322</v>
       </c>
       <c r="B105" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="C105" s="2">
         <v>5380</v>
@@ -4379,7 +5238,7 @@
         <v>41322</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="C106" s="2">
         <v>1279</v>
@@ -4768,7 +5627,7 @@
       <c r="F139" s="6">
         <v>13600</v>
       </c>
-      <c r="G139" s="8" t="s">
+      <c r="G139" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4928,6 +5787,9 @@
       <c r="D153" s="2">
         <v>4917</v>
       </c>
+      <c r="G153" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1">
@@ -4940,9 +5802,6 @@
       <c r="D154" s="6">
         <v>62300</v>
       </c>
-      <c r="G154" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1">
@@ -5070,40 +5929,778 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1">
-        <v>41619</v>
+        <v>41614</v>
       </c>
       <c r="B166" t="s">
-        <v>157</v>
-      </c>
-      <c r="D166" s="6">
-        <v>2698</v>
-      </c>
-      <c r="G166" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2200</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="B167" t="s">
-        <v>110</v>
-      </c>
-      <c r="C167" s="2">
-        <v>529</v>
+        <v>157</v>
+      </c>
+      <c r="D167" s="6">
+        <v>2698</v>
+      </c>
+      <c r="G167" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B168" t="s">
+        <v>110</v>
+      </c>
+      <c r="C168" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
         <v>41623</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>106</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C169" s="2">
         <v>4497</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G169" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B170" t="s">
+        <v>49</v>
+      </c>
+      <c r="C170" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B171" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B172" t="s">
+        <v>164</v>
+      </c>
+      <c r="C172" s="2">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B173" t="s">
+        <v>123</v>
+      </c>
+      <c r="D173" s="6">
+        <v>6600</v>
+      </c>
+      <c r="G173" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="2">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B175" t="s">
+        <v>49</v>
+      </c>
+      <c r="C175" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B176" t="s">
+        <v>45</v>
+      </c>
+      <c r="C176" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B177" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>41683</v>
+      </c>
+      <c r="B178" t="s">
+        <v>114</v>
+      </c>
+      <c r="C178" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>41694</v>
+      </c>
+      <c r="B179" t="s">
+        <v>157</v>
+      </c>
+      <c r="D179" s="6">
+        <v>1636</v>
+      </c>
+      <c r="G179" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B180" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B181" t="s">
+        <v>45</v>
+      </c>
+      <c r="C181" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>41710</v>
+      </c>
+      <c r="B182" t="s">
+        <v>127</v>
+      </c>
+      <c r="C182" s="2">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>41713</v>
+      </c>
+      <c r="B183" t="s">
+        <v>167</v>
+      </c>
+      <c r="C183" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G183" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B184" t="s">
+        <v>157</v>
+      </c>
+      <c r="D184" s="6">
+        <v>1723</v>
+      </c>
+      <c r="G184" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B185" t="s">
+        <v>49</v>
+      </c>
+      <c r="C185" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B186" t="s">
+        <v>45</v>
+      </c>
+      <c r="C186" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>41737</v>
+      </c>
+      <c r="B187" t="s">
+        <v>60</v>
+      </c>
+      <c r="C187" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>41742</v>
+      </c>
+      <c r="B188" t="s">
+        <v>71</v>
+      </c>
+      <c r="C188" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>41765</v>
+      </c>
+      <c r="B189" t="s">
+        <v>49</v>
+      </c>
+      <c r="C189" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>41765</v>
+      </c>
+      <c r="B190" t="s">
+        <v>45</v>
+      </c>
+      <c r="C190" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>41772</v>
+      </c>
+      <c r="B191" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B192" t="s">
+        <v>139</v>
+      </c>
+      <c r="D192" s="2">
+        <v>7734</v>
+      </c>
+      <c r="G192" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B193" t="s">
+        <v>141</v>
+      </c>
+      <c r="D193" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B194" t="s">
+        <v>140</v>
+      </c>
+      <c r="D194" s="2">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B195" t="s">
+        <v>170</v>
+      </c>
+      <c r="C195" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B196" t="s">
+        <v>171</v>
+      </c>
+      <c r="C196" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>41792</v>
+      </c>
+      <c r="B197" t="s">
+        <v>172</v>
+      </c>
+      <c r="C197" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>41795</v>
+      </c>
+      <c r="B198" t="s">
+        <v>49</v>
+      </c>
+      <c r="C198" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>41795</v>
+      </c>
+      <c r="B199" t="s">
+        <v>45</v>
+      </c>
+      <c r="C199" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>41796</v>
+      </c>
+      <c r="B200" t="s">
+        <v>136</v>
+      </c>
+      <c r="C200" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>41799</v>
+      </c>
+      <c r="B201" t="s">
+        <v>132</v>
+      </c>
+      <c r="C201" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G201" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B202" t="s">
+        <v>173</v>
+      </c>
+      <c r="C202" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>41803</v>
+      </c>
+      <c r="B203" t="s">
+        <v>74</v>
+      </c>
+      <c r="C203" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B204" t="s">
+        <v>115</v>
+      </c>
+      <c r="F204" s="6">
+        <v>-13600</v>
+      </c>
+      <c r="G204" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B205" t="s">
+        <v>185</v>
+      </c>
+      <c r="D205" s="6">
+        <v>4708</v>
+      </c>
+      <c r="G205" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>41827</v>
+      </c>
+      <c r="B206" t="s">
+        <v>49</v>
+      </c>
+      <c r="C206" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>41827</v>
+      </c>
+      <c r="B207" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>41830</v>
+      </c>
+      <c r="B208" t="s">
+        <v>92</v>
+      </c>
+      <c r="C208" s="2">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>41832</v>
+      </c>
+      <c r="B209" t="s">
+        <v>175</v>
+      </c>
+      <c r="C209" s="2">
+        <v>90</v>
+      </c>
+      <c r="G209" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>41832</v>
+      </c>
+      <c r="B210" t="s">
+        <v>112</v>
+      </c>
+      <c r="C210" s="2">
+        <v>39</v>
+      </c>
+      <c r="G210" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>41842</v>
+      </c>
+      <c r="B211" t="s">
+        <v>73</v>
+      </c>
+      <c r="C211" s="2">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B212" t="s">
+        <v>49</v>
+      </c>
+      <c r="C212" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B213" t="s">
+        <v>45</v>
+      </c>
+      <c r="C213" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B214" t="s">
+        <v>178</v>
+      </c>
+      <c r="F214" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B215" t="s">
+        <v>177</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="F215" s="2">
+        <v>13600</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B216" t="s">
+        <v>180</v>
+      </c>
+      <c r="D216" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B217" t="s">
+        <v>181</v>
+      </c>
+      <c r="D217" s="6">
+        <v>300</v>
+      </c>
+      <c r="G217" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>41859</v>
+      </c>
+      <c r="B218" t="s">
+        <v>182</v>
+      </c>
+      <c r="C218" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>41864</v>
+      </c>
+      <c r="B219" t="s">
+        <v>93</v>
+      </c>
+      <c r="C219" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>41887</v>
+      </c>
+      <c r="B220" t="s">
+        <v>49</v>
+      </c>
+      <c r="C220" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>41887</v>
+      </c>
+      <c r="B221" t="s">
+        <v>45</v>
+      </c>
+      <c r="C221" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B222" t="s">
+        <v>186</v>
+      </c>
+      <c r="F222" s="6">
+        <v>-11000</v>
+      </c>
+      <c r="G222" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B223" t="s">
+        <v>96</v>
+      </c>
+      <c r="D223" s="6">
+        <v>4824</v>
+      </c>
+      <c r="G223" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B224" t="s">
+        <v>188</v>
+      </c>
+      <c r="C224" s="2">
+        <v>310</v>
+      </c>
+      <c r="G224" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B225" t="s">
+        <v>32</v>
+      </c>
+      <c r="D225" s="6">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B226" t="s">
+        <v>190</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B227" t="s">
+        <v>193</v>
+      </c>
+      <c r="C227" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B228" t="s">
+        <v>112</v>
+      </c>
+      <c r="C228" s="2">
+        <v>374</v>
+      </c>
+      <c r="G228" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B229" t="s">
+        <v>194</v>
+      </c>
+      <c r="C229" s="2">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B232" t="s">
+        <v>183</v>
+      </c>
+      <c r="C232" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G232" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5122,8 +6719,8 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5505,8 +7102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/trunk/交易紀錄/購屋款項.xlsx
+++ b/trunk/交易紀錄/購屋款項.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="221">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,10 +573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2013/6/9~2014/6/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第1間電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,11 +805,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>流理台刷39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間網路線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2014/6/9~2015/6/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間預繳退費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間床墊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間電費+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付7.9月，6~9水費(550)，冷氣遙控器500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>水桶129，白醋82，手套45，地板刷 79，流理台刷39</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流理台刷39</t>
+    <t>水桶149，地板刷 38，流理台刷39，馬桶刷38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2014/10/5~2015/9/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間網路線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>門栓75，電鑽100，鑽頭50，門磁扣100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間10月租金+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間修門費用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間9月水費+機車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間10月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間10月水費+機車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間9月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間11月租金+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間9月水費+機車費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1292,11 +1380,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
+      <pane ySplit="2" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1312,24 +1400,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
-        <f>C1-11000-13000+503-13000-13600-11000</f>
-        <v>909259</v>
+        <f>C1-11000-13000+503-13000-13600-11000-11600</f>
+        <v>1004363</v>
       </c>
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C391)</f>
-        <v>970356</v>
+        <v>1077060</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D391)</f>
-        <v>1136362</v>
+        <v>1203725</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>166006</v>
+        <v>126665</v>
       </c>
       <c r="F1" s="6">
         <f>SUBTOTAL(9,F3:F391)</f>
-        <v>36200</v>
+        <v>36600</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1397,7 +1485,7 @@
         <v>11000</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1763,8 +1851,8 @@
       <c r="F37" s="6">
         <v>11600</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>138</v>
+      <c r="G37" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2800,7 +2888,7 @@
         <v>41441</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D129" s="6">
         <v>6230</v>
@@ -2811,7 +2899,7 @@
         <v>41441</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D130" s="6">
         <v>1800</v>
@@ -2822,7 +2910,7 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D131" s="6">
         <v>63800</v>
@@ -2844,7 +2932,7 @@
         <v>41444</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C133" s="2">
         <v>13000</v>
@@ -2894,7 +2982,7 @@
         <v>41450</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2">
         <v>124</v>
@@ -2905,7 +2993,7 @@
         <v>41450</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" s="2">
         <v>20</v>
@@ -2916,7 +3004,7 @@
         <v>41451</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D139" s="6">
         <v>13600</v>
@@ -2925,7 +3013,7 @@
         <v>13600</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -2933,7 +3021,7 @@
         <v>41451</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D140" s="6">
         <v>74800</v>
@@ -2945,7 +3033,7 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D141" s="6">
         <v>1200</v>
@@ -2978,7 +3066,7 @@
         <v>41466</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C144" s="2">
         <v>4526</v>
@@ -2989,7 +3077,7 @@
         <v>41486</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C145" s="2">
         <v>2200</v>
@@ -3000,7 +3088,7 @@
         <v>41487</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C146" s="2">
         <v>489</v>
@@ -3100,7 +3188,7 @@
         <v>41542</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D155" s="6">
         <v>3324</v>
@@ -3111,7 +3199,7 @@
         <v>41548</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C156" s="2">
         <v>370</v>
@@ -3177,7 +3265,7 @@
         <v>41590</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162" s="2">
         <v>4187</v>
@@ -3188,7 +3276,7 @@
         <v>41607</v>
       </c>
       <c r="B163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163" s="2">
         <v>254</v>
@@ -3221,7 +3309,7 @@
         <v>41614</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166" s="2">
         <v>2200</v>
@@ -3232,7 +3320,7 @@
         <v>41619</v>
       </c>
       <c r="B167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D167" s="6">
         <v>2698</v>
@@ -3287,7 +3375,7 @@
         <v>41652</v>
       </c>
       <c r="B172" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C172" s="2">
         <v>2933</v>
@@ -3342,7 +3430,7 @@
         <v>41677</v>
       </c>
       <c r="B177" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C177" s="2">
         <v>2200</v>
@@ -3364,7 +3452,7 @@
         <v>41694</v>
       </c>
       <c r="B179" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D179" s="6">
         <v>1636</v>
@@ -3408,7 +3496,7 @@
         <v>41713</v>
       </c>
       <c r="B183" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C183" s="2">
         <v>4497</v>
@@ -3419,7 +3507,7 @@
         <v>41726</v>
       </c>
       <c r="B184" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D184" s="6">
         <v>1723</v>
@@ -3507,7 +3595,7 @@
         <v>41787</v>
       </c>
       <c r="B192" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D192" s="2">
         <v>7734</v>
@@ -3518,7 +3606,7 @@
         <v>41787</v>
       </c>
       <c r="B193" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D193" s="2">
         <v>1800</v>
@@ -3529,7 +3617,7 @@
         <v>41787</v>
       </c>
       <c r="B194" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D194" s="2">
         <v>63800</v>
@@ -3540,7 +3628,7 @@
         <v>41787</v>
       </c>
       <c r="B195" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C195" s="2">
         <v>350</v>
@@ -3551,7 +3639,7 @@
         <v>41787</v>
       </c>
       <c r="B196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C196" s="2">
         <v>519</v>
@@ -3562,7 +3650,7 @@
         <v>41792</v>
       </c>
       <c r="B197" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C197" s="2">
         <v>2000</v>
@@ -3617,7 +3705,7 @@
         <v>41802</v>
       </c>
       <c r="B202" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C202" s="2">
         <v>800</v>
@@ -3656,7 +3744,7 @@
         <v>41821</v>
       </c>
       <c r="B205" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D205" s="6">
         <v>4708</v>
@@ -3700,7 +3788,7 @@
         <v>41832</v>
       </c>
       <c r="B209" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C209" s="2">
         <v>90</v>
@@ -3755,7 +3843,7 @@
         <v>41856</v>
       </c>
       <c r="B214" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D214" s="6">
         <v>11000</v>
@@ -3764,7 +3852,7 @@
         <v>11000</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -3772,7 +3860,7 @@
         <v>41857</v>
       </c>
       <c r="B215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D215" s="2">
         <v>13600</v>
@@ -3781,7 +3869,7 @@
         <v>13600</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -3789,7 +3877,7 @@
         <v>41857</v>
       </c>
       <c r="B216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D216" s="6">
         <v>6800</v>
@@ -3800,7 +3888,7 @@
         <v>41857</v>
       </c>
       <c r="B217" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D217" s="6">
         <v>300</v>
@@ -3811,7 +3899,7 @@
         <v>41859</v>
       </c>
       <c r="B218" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C218" s="2">
         <v>2200</v>
@@ -3855,7 +3943,7 @@
         <v>41888</v>
       </c>
       <c r="B222" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C222" s="2">
         <v>11000</v>
@@ -3883,13 +3971,13 @@
         <v>41888</v>
       </c>
       <c r="B224" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C224" s="2">
         <v>310</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>41888</v>
       </c>
@@ -3900,29 +3988,29 @@
         <v>56500</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>41888</v>
       </c>
       <c r="B226" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C226" s="2">
         <v>1600</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>41888</v>
       </c>
       <c r="B227" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C227" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>41888</v>
       </c>
@@ -3933,35 +4021,303 @@
         <v>374</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>41888</v>
       </c>
       <c r="B229" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C229" s="2">
         <v>4131</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" spans="1:4">
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B230" t="s">
+        <v>197</v>
+      </c>
+      <c r="C230" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>41893</v>
+      </c>
+      <c r="B231" t="s">
+        <v>213</v>
+      </c>
+      <c r="C231" s="2">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B232" t="s">
+        <v>182</v>
+      </c>
+      <c r="C232" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>41897</v>
       </c>
       <c r="B233" t="s">
-        <v>183</v>
-      </c>
-      <c r="C233" s="2">
-        <v>4497</v>
+        <v>97</v>
+      </c>
+      <c r="D233" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B234" t="s">
+        <v>215</v>
+      </c>
+      <c r="D234" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B235" t="s">
+        <v>199</v>
+      </c>
+      <c r="C235" s="2">
+        <v>11600</v>
+      </c>
+      <c r="F235" s="6">
+        <f>-11600</f>
+        <v>-11600</v>
+      </c>
+      <c r="G235" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B236" t="s">
+        <v>203</v>
+      </c>
+      <c r="D236" s="6">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B237" t="s">
+        <v>200</v>
+      </c>
+      <c r="C237" s="2">
+        <v>36733</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B238" t="s">
+        <v>112</v>
+      </c>
+      <c r="C238" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B239" t="s">
+        <v>201</v>
+      </c>
+      <c r="C239" s="2">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B240" t="s">
+        <v>207</v>
+      </c>
+      <c r="C240" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>41911</v>
+      </c>
+      <c r="B241" t="s">
+        <v>177</v>
+      </c>
+      <c r="D241" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F241" s="6">
+        <v>12000</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>41914</v>
+      </c>
+      <c r="B242" t="s">
+        <v>212</v>
+      </c>
+      <c r="C242" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>41917</v>
+      </c>
+      <c r="B243" t="s">
+        <v>209</v>
+      </c>
+      <c r="C243" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>41917</v>
+      </c>
+      <c r="B244" t="s">
+        <v>211</v>
+      </c>
+      <c r="D244" s="6">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>41918</v>
+      </c>
+      <c r="B245" t="s">
+        <v>49</v>
+      </c>
+      <c r="D245" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>41918</v>
+      </c>
+      <c r="B246" t="s">
+        <v>45</v>
+      </c>
+      <c r="C246" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>41920</v>
+      </c>
+      <c r="B247" t="s">
+        <v>104</v>
+      </c>
+      <c r="C247" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>41925</v>
+      </c>
+      <c r="B248" t="s">
+        <v>214</v>
+      </c>
+      <c r="C248" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B249" t="s">
+        <v>216</v>
+      </c>
+      <c r="D249" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B250" t="s">
+        <v>217</v>
+      </c>
+      <c r="D250" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B251" t="s">
+        <v>218</v>
+      </c>
+      <c r="D251" s="6">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>41948</v>
+      </c>
+      <c r="B252" t="s">
+        <v>49</v>
+      </c>
+      <c r="D252" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>41948</v>
+      </c>
+      <c r="B253" t="s">
+        <v>45</v>
+      </c>
+      <c r="C253" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>41949</v>
+      </c>
+      <c r="B254" t="s">
+        <v>219</v>
+      </c>
+      <c r="D254" s="6">
+        <v>6150</v>
       </c>
     </row>
   </sheetData>
@@ -3976,11 +4332,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K232"/>
+  <dimension ref="A1:K254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210:C210"/>
+      <pane ySplit="2" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A233" sqref="A233:XFD234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3995,20 +4351,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C396)</f>
-        <v>909259</v>
+        <f>SUBTOTAL(9,C3:C397)</f>
+        <v>1004363</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D396)</f>
-        <v>713562</v>
+        <f>SUBTOTAL(9,D3:D397)</f>
+        <v>748925</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-195697</v>
+        <v>-255438</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F396)</f>
-        <v>36200</v>
+        <f>SUBTOTAL(9,F3:F397)</f>
+        <v>36600</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4070,7 +4426,7 @@
         <v>11000</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4435,8 +4791,8 @@
       <c r="F37" s="6">
         <v>11600</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>137</v>
+      <c r="G37" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4851,7 +5207,7 @@
         <v>41172</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" s="6">
         <v>62300</v>
@@ -5227,7 +5583,7 @@
         <v>41322</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C105" s="2">
         <v>5380</v>
@@ -5238,7 +5594,7 @@
         <v>41322</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C106" s="2">
         <v>1279</v>
@@ -5500,13 +5856,13 @@
         <v>41441</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D129" s="6">
         <v>6230</v>
       </c>
       <c r="G129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5514,7 +5870,7 @@
         <v>41441</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D130" s="6">
         <v>1800</v>
@@ -5525,7 +5881,7 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D131" s="6">
         <v>63800</v>
@@ -5547,7 +5903,7 @@
         <v>41444</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F133" s="6">
         <v>-13000</v>
@@ -5578,7 +5934,7 @@
         <v>4158</v>
       </c>
       <c r="G135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5592,7 +5948,7 @@
         <v>81</v>
       </c>
       <c r="G136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5600,7 +5956,7 @@
         <v>41450</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2">
         <v>124</v>
@@ -5611,7 +5967,7 @@
         <v>41450</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" s="2">
         <v>20</v>
@@ -5622,13 +5978,13 @@
         <v>41451</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F139" s="6">
         <v>13600</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5636,7 +5992,7 @@
         <v>41451</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D140" s="6">
         <v>74800</v>
@@ -5647,7 +6003,7 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D141" s="6">
         <v>1200</v>
@@ -5680,7 +6036,7 @@
         <v>41466</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C144" s="2">
         <v>4526</v>
@@ -5691,7 +6047,7 @@
         <v>41486</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C145" s="2">
         <v>2200</v>
@@ -5702,7 +6058,7 @@
         <v>41487</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C146" s="2">
         <v>489</v>
@@ -5788,7 +6144,7 @@
         <v>4917</v>
       </c>
       <c r="G153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5808,13 +6164,13 @@
         <v>41542</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D155" s="6">
         <v>3324</v>
       </c>
       <c r="G155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5822,7 +6178,7 @@
         <v>41548</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C156" s="2">
         <v>370</v>
@@ -5888,7 +6244,7 @@
         <v>41590</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162" s="2">
         <v>4187</v>
@@ -5899,7 +6255,7 @@
         <v>41607</v>
       </c>
       <c r="B163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163" s="2">
         <v>254</v>
@@ -5932,7 +6288,7 @@
         <v>41614</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166" s="2">
         <v>2200</v>
@@ -5943,13 +6299,13 @@
         <v>41619</v>
       </c>
       <c r="B167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D167" s="6">
         <v>2698</v>
       </c>
       <c r="G167" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6004,7 +6360,7 @@
         <v>41652</v>
       </c>
       <c r="B172" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C172" s="2">
         <v>2933</v>
@@ -6021,7 +6377,7 @@
         <v>6600</v>
       </c>
       <c r="G173" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6063,7 +6419,7 @@
         <v>41677</v>
       </c>
       <c r="B177" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C177" s="2">
         <v>2200</v>
@@ -6085,13 +6441,13 @@
         <v>41694</v>
       </c>
       <c r="B179" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D179" s="6">
         <v>1636</v>
       </c>
       <c r="G179" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6132,7 +6488,7 @@
         <v>41713</v>
       </c>
       <c r="B183" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C183" s="2">
         <v>4497</v>
@@ -6146,13 +6502,13 @@
         <v>41726</v>
       </c>
       <c r="B184" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D184" s="6">
         <v>1723</v>
       </c>
       <c r="G184" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6237,13 +6593,13 @@
         <v>41787</v>
       </c>
       <c r="B192" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D192" s="2">
         <v>7734</v>
       </c>
       <c r="G192" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6251,7 +6607,7 @@
         <v>41787</v>
       </c>
       <c r="B193" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D193" s="2">
         <v>1800</v>
@@ -6262,7 +6618,7 @@
         <v>41787</v>
       </c>
       <c r="B194" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D194" s="2">
         <v>63800</v>
@@ -6273,7 +6629,7 @@
         <v>41787</v>
       </c>
       <c r="B195" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C195" s="2">
         <v>350</v>
@@ -6284,7 +6640,7 @@
         <v>41787</v>
       </c>
       <c r="B196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C196" s="2">
         <v>519</v>
@@ -6295,7 +6651,7 @@
         <v>41792</v>
       </c>
       <c r="B197" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C197" s="2">
         <v>2000</v>
@@ -6353,7 +6709,7 @@
         <v>41802</v>
       </c>
       <c r="B202" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C202" s="2">
         <v>800</v>
@@ -6389,13 +6745,13 @@
         <v>41821</v>
       </c>
       <c r="B205" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D205" s="6">
         <v>4708</v>
       </c>
       <c r="G205" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6436,13 +6792,13 @@
         <v>41832</v>
       </c>
       <c r="B209" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C209" s="2">
         <v>90</v>
       </c>
       <c r="G209" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6456,7 +6812,7 @@
         <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6497,13 +6853,13 @@
         <v>41856</v>
       </c>
       <c r="B214" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="F214" s="6">
         <v>11000</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6511,14 +6867,14 @@
         <v>41857</v>
       </c>
       <c r="B215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D215" s="2"/>
       <c r="F215" s="2">
         <v>13600</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6526,7 +6882,7 @@
         <v>41857</v>
       </c>
       <c r="B216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D216" s="6">
         <v>6800</v>
@@ -6537,13 +6893,13 @@
         <v>41857</v>
       </c>
       <c r="B217" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D217" s="6">
         <v>300</v>
       </c>
       <c r="G217" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6551,7 +6907,7 @@
         <v>41859</v>
       </c>
       <c r="B218" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C218" s="2">
         <v>2200</v>
@@ -6595,7 +6951,7 @@
         <v>41888</v>
       </c>
       <c r="B222" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F222" s="6">
         <v>-11000</v>
@@ -6615,7 +6971,7 @@
         <v>4824</v>
       </c>
       <c r="G223" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6623,13 +6979,13 @@
         <v>41888</v>
       </c>
       <c r="B224" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C224" s="2">
         <v>310</v>
       </c>
       <c r="G224" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6648,7 +7004,7 @@
         <v>41888</v>
       </c>
       <c r="B226" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C226" s="2">
         <v>1600</v>
@@ -6659,7 +7015,7 @@
         <v>41888</v>
       </c>
       <c r="B227" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C227" s="2">
         <v>20</v>
@@ -6676,7 +7032,7 @@
         <v>374</v>
       </c>
       <c r="G228" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6684,10 +7040,32 @@
         <v>41888</v>
       </c>
       <c r="B229" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C229" s="2">
         <v>4131</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B230" t="s">
+        <v>197</v>
+      </c>
+      <c r="C230" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>41893</v>
+      </c>
+      <c r="B231" t="s">
+        <v>213</v>
+      </c>
+      <c r="C231" s="2">
+        <v>5665</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6695,7 +7073,7 @@
         <v>41897</v>
       </c>
       <c r="B232" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C232" s="2">
         <v>4497</v>
@@ -6704,7 +7082,266 @@
         <v>56</v>
       </c>
     </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B233" t="s">
+        <v>97</v>
+      </c>
+      <c r="D233" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B234" t="s">
+        <v>220</v>
+      </c>
+      <c r="D234" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B235" t="s">
+        <v>199</v>
+      </c>
+      <c r="F235" s="6">
+        <f>-11600</f>
+        <v>-11600</v>
+      </c>
+      <c r="G235" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B236" t="s">
+        <v>203</v>
+      </c>
+      <c r="D236" s="6">
+        <v>6920</v>
+      </c>
+      <c r="G236" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B237" t="s">
+        <v>200</v>
+      </c>
+      <c r="C237" s="2">
+        <v>36733</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B238" t="s">
+        <v>112</v>
+      </c>
+      <c r="C238" s="2">
+        <v>264</v>
+      </c>
+      <c r="G238" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B239" t="s">
+        <v>201</v>
+      </c>
+      <c r="C239" s="2">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B240" t="s">
+        <v>207</v>
+      </c>
+      <c r="C240" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>41911</v>
+      </c>
+      <c r="B241" t="s">
+        <v>177</v>
+      </c>
+      <c r="F241" s="6">
+        <v>12000</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>41914</v>
+      </c>
+      <c r="B242" t="s">
+        <v>212</v>
+      </c>
+      <c r="C242" s="2">
+        <v>325</v>
+      </c>
+      <c r="G242" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>41917</v>
+      </c>
+      <c r="B243" t="s">
+        <v>209</v>
+      </c>
+      <c r="C243" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>41917</v>
+      </c>
+      <c r="B244" t="s">
+        <v>211</v>
+      </c>
+      <c r="D244" s="6">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>41918</v>
+      </c>
+      <c r="B245" t="s">
+        <v>49</v>
+      </c>
+      <c r="C245" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>41918</v>
+      </c>
+      <c r="B246" t="s">
+        <v>45</v>
+      </c>
+      <c r="C246" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>41920</v>
+      </c>
+      <c r="B247" t="s">
+        <v>104</v>
+      </c>
+      <c r="C247" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>41925</v>
+      </c>
+      <c r="B248" t="s">
+        <v>214</v>
+      </c>
+      <c r="C248" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B249" t="s">
+        <v>216</v>
+      </c>
+      <c r="D249" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B250" t="s">
+        <v>217</v>
+      </c>
+      <c r="D250" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B251" t="s">
+        <v>218</v>
+      </c>
+      <c r="D251" s="6">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>41948</v>
+      </c>
+      <c r="B252" t="s">
+        <v>49</v>
+      </c>
+      <c r="C252" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>41948</v>
+      </c>
+      <c r="B253" t="s">
+        <v>45</v>
+      </c>
+      <c r="C253" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>41949</v>
+      </c>
+      <c r="B254" t="s">
+        <v>219</v>
+      </c>
+      <c r="D254" s="6">
+        <v>6150</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:K2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -6719,7 +7356,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -7102,7 +7739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>

--- a/trunk/交易紀錄/購屋款項.xlsx
+++ b/trunk/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="232">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -902,6 +902,49 @@
   </si>
   <si>
     <t>第3間9月水費+機車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間11月水費+機車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間修浴室洗手槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間11月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費12月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間12月水費+機車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間11月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間12月租金+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間11月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>353號15樓第四台費</t>
+  </si>
+  <si>
+    <t>353號15樓第四台費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1380,11 +1423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J254"/>
+  <dimension ref="A1:J270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B216" sqref="B216"/>
+      <pane ySplit="2" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D268" sqref="A268:D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1401,22 +1444,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600</f>
-        <v>1004363</v>
+        <v>1037318</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C391)</f>
-        <v>1077060</v>
+        <f>SUBTOTAL(9,C3:C397)</f>
+        <v>1110015</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D391)</f>
-        <v>1203725</v>
+        <f>SUBTOTAL(9,D3:D397)</f>
+        <v>1243777</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>126665</v>
+        <v>133762</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F391)</f>
+        <f>SUBTOTAL(9,F3:F397)</f>
         <v>36600</v>
       </c>
     </row>
@@ -2607,7 +2650,7 @@
         <v>41320</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="D104" s="6">
         <v>13200</v>
@@ -4318,6 +4361,182 @@
       </c>
       <c r="D254" s="6">
         <v>6150</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>41953</v>
+      </c>
+      <c r="B255" t="s">
+        <v>107</v>
+      </c>
+      <c r="C255" s="6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>41955</v>
+      </c>
+      <c r="B256" t="s">
+        <v>221</v>
+      </c>
+      <c r="C256" s="2">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>41957</v>
+      </c>
+      <c r="B257" t="s">
+        <v>103</v>
+      </c>
+      <c r="D257" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>41957</v>
+      </c>
+      <c r="B258" t="s">
+        <v>222</v>
+      </c>
+      <c r="D258" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>41959</v>
+      </c>
+      <c r="B259" t="s">
+        <v>223</v>
+      </c>
+      <c r="C259" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>41967</v>
+      </c>
+      <c r="B260" t="s">
+        <v>224</v>
+      </c>
+      <c r="D260" s="6">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>41978</v>
+      </c>
+      <c r="B261" t="s">
+        <v>49</v>
+      </c>
+      <c r="D261" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>41978</v>
+      </c>
+      <c r="B262" t="s">
+        <v>45</v>
+      </c>
+      <c r="C262" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B263" t="s">
+        <v>109</v>
+      </c>
+      <c r="D263" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B264" t="s">
+        <v>226</v>
+      </c>
+      <c r="D264" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B265" t="s">
+        <v>227</v>
+      </c>
+      <c r="D265" s="6">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B266" t="s">
+        <v>228</v>
+      </c>
+      <c r="D266" s="6">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B267" t="s">
+        <v>229</v>
+      </c>
+      <c r="D267" s="6">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>41985</v>
+      </c>
+      <c r="B268" t="s">
+        <v>230</v>
+      </c>
+      <c r="D268" s="6">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>41986</v>
+      </c>
+      <c r="B269" t="s">
+        <v>225</v>
+      </c>
+      <c r="C269" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>41988</v>
+      </c>
+      <c r="B270" t="s">
+        <v>106</v>
+      </c>
+      <c r="C270" s="2">
+        <v>4497</v>
       </c>
     </row>
   </sheetData>
@@ -4332,11 +4551,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K254"/>
+  <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A233" sqref="A233:XFD234"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4351,19 +4570,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C397)</f>
-        <v>1004363</v>
+        <f>SUBTOTAL(9,C3:C404)</f>
+        <v>1037318</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D397)</f>
-        <v>748925</v>
+        <f>SUBTOTAL(9,D3:D404)</f>
+        <v>778977</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-255438</v>
+        <v>-258341</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F397)</f>
+        <f>SUBTOTAL(9,F3:F404)</f>
         <v>36600</v>
       </c>
     </row>
@@ -7338,6 +7557,185 @@
       </c>
       <c r="D254" s="6">
         <v>6150</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>41953</v>
+      </c>
+      <c r="B255" t="s">
+        <v>107</v>
+      </c>
+      <c r="C255" s="6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>41955</v>
+      </c>
+      <c r="B256" t="s">
+        <v>221</v>
+      </c>
+      <c r="C256" s="2">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>41957</v>
+      </c>
+      <c r="B257" t="s">
+        <v>103</v>
+      </c>
+      <c r="D257" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>41957</v>
+      </c>
+      <c r="B258" t="s">
+        <v>222</v>
+      </c>
+      <c r="D258" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>41959</v>
+      </c>
+      <c r="B259" t="s">
+        <v>223</v>
+      </c>
+      <c r="C259" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>41967</v>
+      </c>
+      <c r="B260" t="s">
+        <v>224</v>
+      </c>
+      <c r="D260" s="6">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>41978</v>
+      </c>
+      <c r="B261" t="s">
+        <v>49</v>
+      </c>
+      <c r="C261" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>41978</v>
+      </c>
+      <c r="B262" t="s">
+        <v>45</v>
+      </c>
+      <c r="C262" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B263" t="s">
+        <v>109</v>
+      </c>
+      <c r="D263" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B264" t="s">
+        <v>226</v>
+      </c>
+      <c r="D264" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B265" t="s">
+        <v>227</v>
+      </c>
+      <c r="D265" s="6">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B266" t="s">
+        <v>228</v>
+      </c>
+      <c r="D266" s="6">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B267" t="s">
+        <v>229</v>
+      </c>
+      <c r="D267" s="6">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>41985</v>
+      </c>
+      <c r="B268" t="s">
+        <v>230</v>
+      </c>
+      <c r="D268" s="6">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>41986</v>
+      </c>
+      <c r="B269" t="s">
+        <v>225</v>
+      </c>
+      <c r="C269" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>41988</v>
+      </c>
+      <c r="B270" t="s">
+        <v>106</v>
+      </c>
+      <c r="C270" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G270" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -7739,7 +8137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>

--- a/trunk/交易紀錄/購屋款項.xlsx
+++ b/trunk/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="269">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1085,6 +1085,14 @@
   </si>
   <si>
     <t>第3間2月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間3月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間3月電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,7 +1175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,6 +1225,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,10 +1598,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J320"/>
+  <dimension ref="A1:J330"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1605,22 +1619,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600</f>
-        <v>1120507</v>
+        <v>1146701</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C427)</f>
-        <v>1206804</v>
+        <f>SUBTOTAL(9,C3:C431)</f>
+        <v>1232998</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D427)</f>
-        <v>1337543</v>
+        <f>SUBTOTAL(9,D3:D431)</f>
+        <v>1361555</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>130739</v>
+        <v>128557</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F427)</f>
+        <f>SUBTOTAL(9,F3:F431)</f>
         <v>36200</v>
       </c>
     </row>
@@ -5259,16 +5273,126 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="1">
+        <v>42074</v>
+      </c>
+      <c r="B320" t="s">
+        <v>50</v>
+      </c>
+      <c r="D320" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1">
+        <v>42074</v>
+      </c>
+      <c r="B321" t="s">
+        <v>258</v>
+      </c>
+      <c r="D321" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1">
+        <v>42075</v>
+      </c>
+      <c r="B322" t="s">
+        <v>69</v>
+      </c>
+      <c r="C322" s="2">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1">
         <v>42078</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B323" t="s">
         <v>265</v>
       </c>
-      <c r="C320" s="2">
+      <c r="C323" s="2">
         <v>4497</v>
       </c>
-      <c r="G320" t="s">
+      <c r="G323" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1">
+        <v>42087</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D324" s="6">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1">
+        <v>42102</v>
+      </c>
+      <c r="B325" t="s">
+        <v>48</v>
+      </c>
+      <c r="D325" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1">
+        <v>42102</v>
+      </c>
+      <c r="B326" t="s">
+        <v>44</v>
+      </c>
+      <c r="C326" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B327" t="s">
+        <v>50</v>
+      </c>
+      <c r="D327" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B328" t="s">
+        <v>258</v>
+      </c>
+      <c r="D328" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B329" t="s">
+        <v>267</v>
+      </c>
+      <c r="D329" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1">
+        <v>42107</v>
+      </c>
+      <c r="B330" t="s">
+        <v>70</v>
+      </c>
+      <c r="C330" s="2">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5284,11 +5408,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K321"/>
+  <dimension ref="A1:K331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5303,19 +5427,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C434)</f>
-        <v>1120507</v>
+        <f>SUBTOTAL(9,C3:C436)</f>
+        <v>1146701</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D434)</f>
-        <v>843243</v>
+        <f>SUBTOTAL(9,D3:D436)</f>
+        <v>857255</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-277264</v>
+        <v>-289446</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F434)</f>
+        <f>SUBTOTAL(9,F3:F436)</f>
         <v>36200</v>
       </c>
     </row>
@@ -8797,22 +8921,19 @@
         <v>150</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
-      <c r="A299" s="14">
+    <row r="299" spans="1:7" s="5" customFormat="1">
+      <c r="A299" s="17">
         <v>42031</v>
       </c>
-      <c r="B299" s="13" t="s">
+      <c r="B299" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C299" s="15"/>
-      <c r="D299" s="16">
+      <c r="C299" s="18"/>
+      <c r="D299" s="11">
         <v>936</v>
       </c>
-      <c r="E299" s="16"/>
-      <c r="F299" s="16"/>
-      <c r="G299" s="13" t="s">
-        <v>215</v>
-      </c>
+      <c r="E299" s="11"/>
+      <c r="F299" s="11"/>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="1">
@@ -9056,16 +9177,126 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="1">
+        <v>42074</v>
+      </c>
+      <c r="B321" t="s">
+        <v>50</v>
+      </c>
+      <c r="D321" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1">
+        <v>42074</v>
+      </c>
+      <c r="B322" t="s">
+        <v>258</v>
+      </c>
+      <c r="D322" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1">
+        <v>42075</v>
+      </c>
+      <c r="B323" t="s">
+        <v>69</v>
+      </c>
+      <c r="C323" s="2">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1">
         <v>42078</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B324" t="s">
         <v>265</v>
       </c>
-      <c r="C321" s="2">
+      <c r="C324" s="2">
         <v>4497</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G324" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1">
+        <v>42087</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D325" s="6">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1">
+        <v>42102</v>
+      </c>
+      <c r="B326" t="s">
+        <v>48</v>
+      </c>
+      <c r="C326" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1">
+        <v>42102</v>
+      </c>
+      <c r="B327" t="s">
+        <v>44</v>
+      </c>
+      <c r="C327" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B328" t="s">
+        <v>50</v>
+      </c>
+      <c r="D328" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B329" t="s">
+        <v>258</v>
+      </c>
+      <c r="D329" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B330" t="s">
+        <v>267</v>
+      </c>
+      <c r="D330" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1">
+        <v>42107</v>
+      </c>
+      <c r="B331" t="s">
+        <v>70</v>
+      </c>
+      <c r="C331" s="2">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/交易紀錄/購屋款項.xlsx
+++ b/trunk/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -13,15 +13,15 @@
     <sheet name="借款" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$338</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$337</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="270">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,10 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2013/2/18~2013/6/18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水費6月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,10 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2013/6/9~2014/6/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第1間電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2014/8/6~ 2015/8/6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第3間8月租金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,10 +789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2014/10/5~2015/9/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第1間網路線</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -880,10 +864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>付成858少付78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第1間1月電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1093,6 +1073,30 @@
   </si>
   <si>
     <t>第2間3月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間3月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間4月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間4月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2014/10/5~2015/7/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2015/7/6~2016/7/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,7 +1139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1154,12 +1158,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1175,7 +1173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1214,18 +1212,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1598,11 +1584,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J330"/>
+  <dimension ref="A1:J343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1619,23 +1605,23 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600</f>
-        <v>1146701</v>
+        <v>1184141</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C431)</f>
-        <v>1232998</v>
+        <f>SUBTOTAL(9,C3:C432)</f>
+        <v>1270438</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D431)</f>
-        <v>1361555</v>
+        <f>SUBTOTAL(9,D3:D432)</f>
+        <v>1389705</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>128557</v>
+        <v>119267</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F431)</f>
-        <v>36200</v>
+        <f>SUBTOTAL(9,F3:F432)</f>
+        <v>48200</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1666,7 +1652,7 @@
         <v>40913</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D3" s="6">
         <v>39733</v>
@@ -1677,7 +1663,7 @@
         <v>40913</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D4" s="6">
         <v>1800</v>
@@ -1696,9 +1682,6 @@
       <c r="F5" s="6">
         <v>11000</v>
       </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -1713,9 +1696,7 @@
       <c r="F6" s="6">
         <v>11000</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -1730,9 +1711,7 @@
       <c r="F7" s="6">
         <v>13000</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
@@ -2080,9 +2059,7 @@
       <c r="F38" s="6">
         <v>11600</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
@@ -2483,7 +2460,7 @@
         <v>41172</v>
       </c>
       <c r="B74" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D74" s="6">
         <v>60500</v>
@@ -2496,7 +2473,7 @@
         <v>41172</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D75" s="6">
         <v>1800</v>
@@ -2849,7 +2826,7 @@
         <v>41320</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D106" s="6">
         <v>13200</v>
@@ -2890,9 +2867,7 @@
       <c r="F109" s="6">
         <v>13000</v>
       </c>
-      <c r="G109" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1">
@@ -3075,7 +3050,7 @@
         <v>41426</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2">
         <v>568</v>
@@ -3108,7 +3083,7 @@
         <v>41435</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2">
         <v>2200</v>
@@ -3130,7 +3105,7 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D131" s="6">
         <v>6230</v>
@@ -3141,7 +3116,7 @@
         <v>41441</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D132" s="6">
         <v>1800</v>
@@ -3152,7 +3127,7 @@
         <v>41441</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D133" s="6">
         <v>63800</v>
@@ -3174,7 +3149,7 @@
         <v>41444</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C135" s="2">
         <v>13000</v>
@@ -3224,7 +3199,7 @@
         <v>41450</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2">
         <v>124</v>
@@ -3235,7 +3210,7 @@
         <v>41450</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C140" s="2">
         <v>20</v>
@@ -3246,7 +3221,7 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D141" s="6">
         <v>13600</v>
@@ -3254,16 +3229,14 @@
       <c r="F141" s="6">
         <v>13600</v>
       </c>
-      <c r="G141" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>41451</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D142" s="6">
         <v>74800</v>
@@ -3275,7 +3248,7 @@
         <v>41451</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D143" s="6">
         <v>1200</v>
@@ -3308,7 +3281,7 @@
         <v>41466</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C146" s="2">
         <v>4526</v>
@@ -3319,7 +3292,7 @@
         <v>41486</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C147" s="2">
         <v>2200</v>
@@ -3330,7 +3303,7 @@
         <v>41487</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C148" s="2">
         <v>489</v>
@@ -3418,7 +3391,7 @@
         <v>41534</v>
       </c>
       <c r="B156" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6">
@@ -3430,7 +3403,7 @@
         <v>41534</v>
       </c>
       <c r="B157" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6">
@@ -3453,7 +3426,7 @@
         <v>41542</v>
       </c>
       <c r="B159" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D159" s="6">
         <v>450</v>
@@ -3464,7 +3437,7 @@
         <v>41548</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C160" s="2">
         <v>370</v>
@@ -3530,7 +3503,7 @@
         <v>41590</v>
       </c>
       <c r="B166" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C166" s="2">
         <v>4187</v>
@@ -3541,7 +3514,7 @@
         <v>41607</v>
       </c>
       <c r="B167" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C167" s="2">
         <v>254</v>
@@ -3574,7 +3547,7 @@
         <v>41614</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C170" s="2">
         <v>2200</v>
@@ -3596,7 +3569,7 @@
         <v>41619</v>
       </c>
       <c r="B172" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D172" s="6">
         <v>300</v>
@@ -3651,7 +3624,7 @@
         <v>41652</v>
       </c>
       <c r="B177" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C177" s="2">
         <v>2933</v>
@@ -3706,7 +3679,7 @@
         <v>41677</v>
       </c>
       <c r="B182" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C182" s="2">
         <v>2200</v>
@@ -3739,7 +3712,7 @@
         <v>41694</v>
       </c>
       <c r="B185" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D185" s="6">
         <v>300</v>
@@ -3783,7 +3756,7 @@
         <v>41713</v>
       </c>
       <c r="B189" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C189" s="2">
         <v>4497</v>
@@ -3805,7 +3778,7 @@
         <v>41726</v>
       </c>
       <c r="B191" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D191" s="6">
         <v>300</v>
@@ -3893,7 +3866,7 @@
         <v>41787</v>
       </c>
       <c r="B199" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D199" s="2">
         <v>7734</v>
@@ -3904,7 +3877,7 @@
         <v>41787</v>
       </c>
       <c r="B200" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D200" s="2">
         <v>1800</v>
@@ -3915,7 +3888,7 @@
         <v>41787</v>
       </c>
       <c r="B201" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D201" s="2">
         <v>63800</v>
@@ -3926,7 +3899,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -3937,7 +3910,7 @@
         <v>41787</v>
       </c>
       <c r="B203" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C203" s="2">
         <v>519</v>
@@ -3948,7 +3921,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -3981,7 +3954,7 @@
         <v>41796</v>
       </c>
       <c r="B207" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C207" s="2">
         <v>2200</v>
@@ -4003,7 +3976,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -4053,7 +4026,7 @@
         <v>41821</v>
       </c>
       <c r="B213" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D213" s="6">
         <v>450</v>
@@ -4097,7 +4070,7 @@
         <v>41832</v>
       </c>
       <c r="B217" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C217" s="2">
         <v>90</v>
@@ -4152,7 +4125,7 @@
         <v>41856</v>
       </c>
       <c r="B222" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D222" s="6">
         <v>11000</v>
@@ -4160,16 +4133,14 @@
       <c r="F222" s="6">
         <v>11000</v>
       </c>
-      <c r="G222" s="8" t="s">
-        <v>178</v>
-      </c>
+      <c r="G222" s="5"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>41857</v>
       </c>
       <c r="B223" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D223" s="2">
         <v>13600</v>
@@ -4177,16 +4148,14 @@
       <c r="F223" s="6">
         <v>13600</v>
       </c>
-      <c r="G223" s="8" t="s">
-        <v>170</v>
-      </c>
+      <c r="G223" s="5"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>41857</v>
       </c>
       <c r="B224" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D224" s="6">
         <v>6800</v>
@@ -4197,7 +4166,7 @@
         <v>41857</v>
       </c>
       <c r="B225" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D225" s="6">
         <v>150</v>
@@ -4208,7 +4177,7 @@
         <v>41857</v>
       </c>
       <c r="B226" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D226" s="6">
         <v>150</v>
@@ -4219,7 +4188,7 @@
         <v>41859</v>
       </c>
       <c r="B227" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C227" s="2">
         <v>2200</v>
@@ -4263,7 +4232,7 @@
         <v>41888</v>
       </c>
       <c r="B231" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C231" s="2">
         <v>11000</v>
@@ -4291,7 +4260,7 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
@@ -4302,7 +4271,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -4313,7 +4282,7 @@
         <v>41888</v>
       </c>
       <c r="B235" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D235" s="6">
         <v>1500</v>
@@ -4324,7 +4293,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -4335,7 +4304,7 @@
         <v>41888</v>
       </c>
       <c r="B237" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C237" s="2">
         <v>20</v>
@@ -4357,7 +4326,7 @@
         <v>41888</v>
       </c>
       <c r="B239" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C239" s="2">
         <v>4131</v>
@@ -4368,7 +4337,7 @@
         <v>41888</v>
       </c>
       <c r="B240" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C240" s="2">
         <v>79</v>
@@ -4379,7 +4348,7 @@
         <v>41893</v>
       </c>
       <c r="B241" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C241" s="2">
         <v>5665</v>
@@ -4390,7 +4359,7 @@
         <v>41897</v>
       </c>
       <c r="B242" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C242" s="2">
         <v>4497</v>
@@ -4412,7 +4381,7 @@
         <v>41897</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D244" s="6">
         <v>150</v>
@@ -4423,7 +4392,7 @@
         <v>41897</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D245" s="6">
         <v>150</v>
@@ -4434,7 +4403,7 @@
         <v>41910</v>
       </c>
       <c r="B246" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C246" s="2">
         <v>11600</v>
@@ -4474,7 +4443,7 @@
         <v>41910</v>
       </c>
       <c r="B249" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C249" s="2">
         <v>36733</v>
@@ -4496,7 +4465,7 @@
         <v>41910</v>
       </c>
       <c r="B251" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C251" s="2">
         <v>3690</v>
@@ -4507,7 +4476,7 @@
         <v>41910</v>
       </c>
       <c r="B252" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C252" s="2">
         <v>95</v>
@@ -4518,7 +4487,7 @@
         <v>41911</v>
       </c>
       <c r="B253" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D253" s="6">
         <v>12000</v>
@@ -4526,16 +4495,14 @@
       <c r="F253" s="6">
         <v>12000</v>
       </c>
-      <c r="G253" s="8" t="s">
-        <v>195</v>
-      </c>
+      <c r="G253" s="5"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>41914</v>
       </c>
       <c r="B254" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C254" s="2">
         <v>325</v>
@@ -4546,7 +4513,7 @@
         <v>41917</v>
       </c>
       <c r="B255" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C255" s="2">
         <v>129</v>
@@ -4557,7 +4524,7 @@
         <v>41917</v>
       </c>
       <c r="B256" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D256" s="6">
         <v>6000</v>
@@ -4568,7 +4535,7 @@
         <v>41917</v>
       </c>
       <c r="B257" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D257" s="6">
         <v>150</v>
@@ -4612,7 +4579,7 @@
         <v>41925</v>
       </c>
       <c r="B261" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C261" s="2">
         <v>430</v>
@@ -4623,7 +4590,7 @@
         <v>41932</v>
       </c>
       <c r="B262" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D262" s="6">
         <v>6800</v>
@@ -4634,7 +4601,7 @@
         <v>41932</v>
       </c>
       <c r="B263" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D263" s="6">
         <v>150</v>
@@ -4645,7 +4612,7 @@
         <v>41932</v>
       </c>
       <c r="B264" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D264" s="6">
         <v>150</v>
@@ -4656,7 +4623,7 @@
         <v>41932</v>
       </c>
       <c r="B265" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D265" s="6">
         <v>1943</v>
@@ -4689,7 +4656,7 @@
         <v>41949</v>
       </c>
       <c r="B268" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D268" s="6">
         <v>6000</v>
@@ -4700,7 +4667,7 @@
         <v>41949</v>
       </c>
       <c r="B269" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D269" s="6">
         <v>150</v>
@@ -4722,7 +4689,7 @@
         <v>41955</v>
       </c>
       <c r="B271" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C271" s="2">
         <v>4767</v>
@@ -4744,7 +4711,7 @@
         <v>41957</v>
       </c>
       <c r="B273" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D273" s="6">
         <v>150</v>
@@ -4755,7 +4722,7 @@
         <v>41957</v>
       </c>
       <c r="B274" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D274" s="6">
         <v>150</v>
@@ -4766,7 +4733,7 @@
         <v>41959</v>
       </c>
       <c r="B275" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C275" s="2">
         <v>300</v>
@@ -4777,7 +4744,7 @@
         <v>41967</v>
       </c>
       <c r="B276" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D276" s="6">
         <v>858</v>
@@ -4810,7 +4777,7 @@
         <v>41981</v>
       </c>
       <c r="B279" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C279" s="2">
         <v>2200</v>
@@ -4832,7 +4799,7 @@
         <v>41982</v>
       </c>
       <c r="B281" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D281" s="6">
         <v>150</v>
@@ -4843,7 +4810,7 @@
         <v>41982</v>
       </c>
       <c r="B282" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D282" s="6">
         <v>150</v>
@@ -4854,7 +4821,7 @@
         <v>41982</v>
       </c>
       <c r="B283" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D283" s="6">
         <v>1277</v>
@@ -4865,7 +4832,7 @@
         <v>41983</v>
       </c>
       <c r="B284" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D284" s="6">
         <v>6000</v>
@@ -4876,7 +4843,7 @@
         <v>41983</v>
       </c>
       <c r="B285" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D285" s="6">
         <v>150</v>
@@ -4887,7 +4854,7 @@
         <v>41983</v>
       </c>
       <c r="B286" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D286" s="6">
         <v>967</v>
@@ -4898,7 +4865,7 @@
         <v>41985</v>
       </c>
       <c r="B287" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D287" s="6">
         <v>6600</v>
@@ -4909,13 +4876,13 @@
         <v>41986</v>
       </c>
       <c r="B288" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C288" s="2">
         <v>390</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <v>41988</v>
       </c>
@@ -4926,7 +4893,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <v>42010</v>
       </c>
@@ -4937,7 +4904,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <v>42010</v>
       </c>
@@ -4948,29 +4915,29 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <v>42014</v>
       </c>
       <c r="B292" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D292" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <v>42014</v>
       </c>
       <c r="B293" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D293" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <v>42017</v>
       </c>
@@ -4981,7 +4948,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <v>42018</v>
       </c>
@@ -4992,46 +4959,43 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D296" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="14">
+    <row r="298" spans="1:6" s="5" customFormat="1">
+      <c r="A298" s="13">
         <v>42031</v>
       </c>
-      <c r="B298" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C298" s="15"/>
-      <c r="D298" s="16">
+      <c r="B298" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C298" s="14"/>
+      <c r="D298" s="11">
         <v>936</v>
       </c>
-      <c r="E298" s="16"/>
-      <c r="F298" s="16"/>
-      <c r="G298" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="E298" s="11"/>
+      <c r="F298" s="11"/>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <v>42036</v>
       </c>
@@ -5042,7 +5006,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <v>42040</v>
       </c>
@@ -5053,7 +5017,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <v>42040</v>
       </c>
@@ -5064,34 +5028,34 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:6">
       <c r="A302" s="1">
         <v>42043</v>
       </c>
       <c r="B302" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C302" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:6">
       <c r="A303" s="1">
         <v>42045</v>
       </c>
       <c r="B303" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D303" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:6">
       <c r="A304" s="1">
         <v>42045</v>
       </c>
       <c r="B304" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D304" s="6">
         <v>150</v>
@@ -5102,7 +5066,7 @@
         <v>42045</v>
       </c>
       <c r="B305" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D305" s="6">
         <v>1424</v>
@@ -5124,7 +5088,7 @@
         <v>42062</v>
       </c>
       <c r="B307" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D307" s="6">
         <v>13200</v>
@@ -5138,7 +5102,7 @@
         <v>42062</v>
       </c>
       <c r="B308" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D308" s="6">
         <v>16800</v>
@@ -5149,7 +5113,7 @@
         <v>42063</v>
       </c>
       <c r="B309" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C309" s="2">
         <v>13600</v>
@@ -5166,7 +5130,7 @@
         <v>42063</v>
       </c>
       <c r="B310" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D310" s="6">
         <v>5587</v>
@@ -5177,7 +5141,7 @@
         <v>42063</v>
       </c>
       <c r="B311" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D311" s="6">
         <v>123</v>
@@ -5188,7 +5152,7 @@
         <v>42063</v>
       </c>
       <c r="B312" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D312" s="6">
         <v>123</v>
@@ -5199,7 +5163,7 @@
         <v>42063</v>
       </c>
       <c r="B313" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D313" s="6">
         <v>940</v>
@@ -5210,7 +5174,7 @@
         <v>42063</v>
       </c>
       <c r="B314" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D314" s="6">
         <v>683</v>
@@ -5243,7 +5207,7 @@
         <v>42070</v>
       </c>
       <c r="B317" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C317" s="2">
         <v>140</v>
@@ -5254,7 +5218,7 @@
         <v>42070</v>
       </c>
       <c r="B318" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D318" s="6">
         <v>3000</v>
@@ -5265,7 +5229,7 @@
         <v>42070</v>
       </c>
       <c r="B319" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D319" s="6">
         <v>1000</v>
@@ -5276,24 +5240,24 @@
         <v>42074</v>
       </c>
       <c r="B320" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D320" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:4">
       <c r="A321" s="1">
         <v>42074</v>
       </c>
       <c r="B321" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D321" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:4">
       <c r="A322" s="1">
         <v>42075</v>
       </c>
@@ -5304,32 +5268,29 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:4">
       <c r="A323" s="1">
         <v>42078</v>
       </c>
       <c r="B323" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C323" s="2">
         <v>4497</v>
       </c>
-      <c r="G323" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" s="1">
         <v>42087</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D324" s="6">
         <v>612</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:4">
       <c r="A325" s="1">
         <v>42102</v>
       </c>
@@ -5340,7 +5301,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:4">
       <c r="A326" s="1">
         <v>42102</v>
       </c>
@@ -5351,52 +5312,153 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:4">
       <c r="A327" s="1">
-        <v>42105</v>
+        <v>42102</v>
       </c>
       <c r="B327" t="s">
-        <v>50</v>
-      </c>
-      <c r="D327" s="6">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="C327" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" s="1">
         <v>42105</v>
       </c>
       <c r="B328" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D328" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" s="1">
         <v>42105</v>
       </c>
       <c r="B329" t="s">
+        <v>266</v>
+      </c>
+      <c r="D329" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B330" t="s">
+        <v>262</v>
+      </c>
+      <c r="D330" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>42107</v>
+      </c>
+      <c r="B331" t="s">
+        <v>70</v>
+      </c>
+      <c r="C331" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>42129</v>
+      </c>
+      <c r="B332" t="s">
+        <v>48</v>
+      </c>
+      <c r="D332" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>42129</v>
+      </c>
+      <c r="B333" t="s">
+        <v>44</v>
+      </c>
+      <c r="C333" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>42135</v>
+      </c>
+      <c r="B334" t="s">
+        <v>57</v>
+      </c>
+      <c r="D334" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>42135</v>
+      </c>
+      <c r="B335" t="s">
+        <v>264</v>
+      </c>
+      <c r="D335" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>42137</v>
+      </c>
+      <c r="B336" t="s">
+        <v>71</v>
+      </c>
+      <c r="C336" s="2">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="1">
+        <v>42140</v>
+      </c>
+      <c r="B337" t="s">
+        <v>34</v>
+      </c>
+      <c r="D337" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F337" s="6">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="1">
+        <v>42164</v>
+      </c>
+      <c r="B342" t="s">
         <v>267</v>
       </c>
-      <c r="D329" s="6">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
-      <c r="A330" s="1">
-        <v>42107</v>
-      </c>
-      <c r="B330" t="s">
-        <v>70</v>
-      </c>
-      <c r="C330" s="2">
-        <v>301</v>
+      <c r="C342" s="2">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="1">
+        <v>42170</v>
+      </c>
+      <c r="B343" t="s">
+        <v>131</v>
+      </c>
+      <c r="C343" s="2">
+        <v>4497</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -5408,11 +5470,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K331"/>
+  <dimension ref="A1:K345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5427,20 +5489,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C436)</f>
-        <v>1146701</v>
+        <f>SUBTOTAL(9,C3:C437)</f>
+        <v>1184141</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D436)</f>
-        <v>857255</v>
+        <f>SUBTOTAL(9,D3:D437)</f>
+        <v>850205</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-289446</v>
+        <v>-333936</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F436)</f>
-        <v>36200</v>
+        <f>SUBTOTAL(9,F3:F437)</f>
+        <v>48200</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5471,7 +5533,7 @@
         <v>40913</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D3" s="6">
         <v>39733</v>
@@ -5482,7 +5544,7 @@
         <v>40913</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D4" s="6">
         <v>1800</v>
@@ -5513,7 +5575,7 @@
         <v>11000</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5879,7 +5941,7 @@
         <v>11600</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6294,7 +6356,7 @@
         <v>41172</v>
       </c>
       <c r="B74" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D74" s="6">
         <v>60500</v>
@@ -6307,7 +6369,7 @@
         <v>41172</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D75" s="6">
         <v>1800</v>
@@ -6683,7 +6745,7 @@
         <v>41322</v>
       </c>
       <c r="B107" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C107" s="2">
         <v>5380</v>
@@ -6694,7 +6756,7 @@
         <v>41322</v>
       </c>
       <c r="B108" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C108" s="2">
         <v>1279</v>
@@ -6898,7 +6960,7 @@
         <v>41426</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2">
         <v>568</v>
@@ -6931,7 +6993,7 @@
         <v>41435</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2">
         <v>2200</v>
@@ -6956,13 +7018,13 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D131" s="6">
         <v>6230</v>
       </c>
       <c r="G131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -6970,7 +7032,7 @@
         <v>41441</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D132" s="6">
         <v>1800</v>
@@ -6981,7 +7043,7 @@
         <v>41441</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D133" s="6">
         <v>63800</v>
@@ -7003,7 +7065,7 @@
         <v>41444</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F135" s="6">
         <v>-13000</v>
@@ -7034,7 +7096,7 @@
         <v>4158</v>
       </c>
       <c r="G137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -7048,7 +7110,7 @@
         <v>81</v>
       </c>
       <c r="G138" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -7056,7 +7118,7 @@
         <v>41450</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2">
         <v>124</v>
@@ -7067,7 +7129,7 @@
         <v>41450</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C140" s="2">
         <v>20</v>
@@ -7078,13 +7140,13 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F141" s="6">
         <v>13600</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -7092,7 +7154,7 @@
         <v>41451</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D142" s="6">
         <v>74800</v>
@@ -7103,7 +7165,7 @@
         <v>41451</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D143" s="6">
         <v>1200</v>
@@ -7136,7 +7198,7 @@
         <v>41466</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C146" s="2">
         <v>4526</v>
@@ -7147,7 +7209,7 @@
         <v>41486</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C147" s="2">
         <v>2200</v>
@@ -7158,7 +7220,7 @@
         <v>41487</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C148" s="2">
         <v>489</v>
@@ -7244,7 +7306,7 @@
         <v>4917</v>
       </c>
       <c r="G155" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -7252,7 +7314,7 @@
         <v>41534</v>
       </c>
       <c r="B156" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6">
@@ -7264,7 +7326,7 @@
         <v>41534</v>
       </c>
       <c r="B157" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6">
@@ -7282,7 +7344,7 @@
         <v>2874</v>
       </c>
       <c r="G158" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -7290,13 +7352,13 @@
         <v>41542</v>
       </c>
       <c r="B159" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D159" s="6">
         <v>450</v>
       </c>
       <c r="G159" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -7304,7 +7366,7 @@
         <v>41548</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C160" s="2">
         <v>370</v>
@@ -7370,7 +7432,7 @@
         <v>41590</v>
       </c>
       <c r="B166" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C166" s="2">
         <v>4187</v>
@@ -7381,7 +7443,7 @@
         <v>41607</v>
       </c>
       <c r="B167" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C167" s="2">
         <v>254</v>
@@ -7414,7 +7476,7 @@
         <v>41614</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C170" s="2">
         <v>2200</v>
@@ -7431,7 +7493,7 @@
         <v>2398</v>
       </c>
       <c r="G171" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -7439,13 +7501,13 @@
         <v>41619</v>
       </c>
       <c r="B172" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D172" s="6">
         <v>300</v>
       </c>
       <c r="G172" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -7500,7 +7562,7 @@
         <v>41652</v>
       </c>
       <c r="B177" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C177" s="2">
         <v>2933</v>
@@ -7517,7 +7579,7 @@
         <v>6600</v>
       </c>
       <c r="G178" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -7559,7 +7621,7 @@
         <v>41677</v>
       </c>
       <c r="B182" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C182" s="2">
         <v>2200</v>
@@ -7587,7 +7649,7 @@
         <v>1336</v>
       </c>
       <c r="G184" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -7595,13 +7657,13 @@
         <v>41694</v>
       </c>
       <c r="B185" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D185" s="6">
         <v>300</v>
       </c>
       <c r="G185" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -7642,7 +7704,7 @@
         <v>41713</v>
       </c>
       <c r="B189" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C189" s="2">
         <v>4497</v>
@@ -7662,7 +7724,7 @@
         <v>1423</v>
       </c>
       <c r="G190" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -7670,13 +7732,13 @@
         <v>41726</v>
       </c>
       <c r="B191" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D191" s="6">
         <v>300</v>
       </c>
       <c r="G191" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -7761,13 +7823,13 @@
         <v>41787</v>
       </c>
       <c r="B199" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D199" s="2">
         <v>7734</v>
       </c>
       <c r="G199" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -7775,7 +7837,7 @@
         <v>41787</v>
       </c>
       <c r="B200" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D200" s="2">
         <v>1800</v>
@@ -7786,7 +7848,7 @@
         <v>41787</v>
       </c>
       <c r="B201" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D201" s="2">
         <v>63800</v>
@@ -7797,7 +7859,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -7808,7 +7870,7 @@
         <v>41787</v>
       </c>
       <c r="B203" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C203" s="2">
         <v>519</v>
@@ -7819,7 +7881,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -7852,7 +7914,7 @@
         <v>41796</v>
       </c>
       <c r="B207" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C207" s="2">
         <v>2200</v>
@@ -7877,7 +7939,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -7919,7 +7981,7 @@
         <v>4258</v>
       </c>
       <c r="G212" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -7927,13 +7989,13 @@
         <v>41821</v>
       </c>
       <c r="B213" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D213" s="6">
         <v>450</v>
       </c>
       <c r="G213" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -7974,13 +8036,13 @@
         <v>41832</v>
       </c>
       <c r="B217" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C217" s="2">
         <v>90</v>
       </c>
       <c r="G217" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7994,7 +8056,7 @@
         <v>39</v>
       </c>
       <c r="G218" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -8035,13 +8097,13 @@
         <v>41856</v>
       </c>
       <c r="B222" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F222" s="6">
         <v>11000</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -8049,14 +8111,14 @@
         <v>41857</v>
       </c>
       <c r="B223" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D223" s="2"/>
       <c r="F223" s="2">
         <v>13600</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -8064,7 +8126,7 @@
         <v>41857</v>
       </c>
       <c r="B224" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D224" s="6">
         <v>6800</v>
@@ -8075,7 +8137,7 @@
         <v>41857</v>
       </c>
       <c r="B225" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D225" s="6">
         <v>150</v>
@@ -8086,7 +8148,7 @@
         <v>41857</v>
       </c>
       <c r="B226" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D226" s="6">
         <v>150</v>
@@ -8097,7 +8159,7 @@
         <v>41859</v>
       </c>
       <c r="B227" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C227" s="2">
         <v>2200</v>
@@ -8141,7 +8203,7 @@
         <v>41888</v>
       </c>
       <c r="B231" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F231" s="6">
         <v>-11000</v>
@@ -8161,7 +8223,7 @@
         <v>4824</v>
       </c>
       <c r="G232" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -8169,13 +8231,13 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
       </c>
       <c r="G233" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -8183,7 +8245,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -8194,7 +8256,7 @@
         <v>41888</v>
       </c>
       <c r="B235" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D235" s="6">
         <v>1500</v>
@@ -8205,7 +8267,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -8216,7 +8278,7 @@
         <v>41888</v>
       </c>
       <c r="B237" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C237" s="2">
         <v>20</v>
@@ -8233,7 +8295,7 @@
         <v>374</v>
       </c>
       <c r="G238" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -8241,7 +8303,7 @@
         <v>41888</v>
       </c>
       <c r="B239" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C239" s="2">
         <v>4131</v>
@@ -8252,7 +8314,7 @@
         <v>41888</v>
       </c>
       <c r="B240" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C240" s="2">
         <v>79</v>
@@ -8263,7 +8325,7 @@
         <v>41893</v>
       </c>
       <c r="B241" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C241" s="2">
         <v>5665</v>
@@ -8274,7 +8336,7 @@
         <v>41897</v>
       </c>
       <c r="B242" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C242" s="2">
         <v>4497</v>
@@ -8299,7 +8361,7 @@
         <v>41897</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D244" s="6">
         <v>150</v>
@@ -8310,7 +8372,7 @@
         <v>41897</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D245" s="6">
         <v>150</v>
@@ -8321,7 +8383,7 @@
         <v>41910</v>
       </c>
       <c r="B246" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F246" s="6">
         <f>-11600</f>
@@ -8336,13 +8398,13 @@
         <v>41910</v>
       </c>
       <c r="B247" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D247" s="6">
         <v>6920</v>
       </c>
       <c r="G247" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -8350,13 +8412,13 @@
         <v>41910</v>
       </c>
       <c r="B248" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D248" s="6">
         <v>550</v>
       </c>
       <c r="G248" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -8364,7 +8426,7 @@
         <v>41910</v>
       </c>
       <c r="B249" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D249" s="6">
         <v>500</v>
@@ -8375,7 +8437,7 @@
         <v>41910</v>
       </c>
       <c r="B250" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C250" s="2">
         <v>36733</v>
@@ -8392,7 +8454,7 @@
         <v>264</v>
       </c>
       <c r="G251" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -8400,7 +8462,7 @@
         <v>41910</v>
       </c>
       <c r="B252" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C252" s="2">
         <v>3690</v>
@@ -8411,7 +8473,7 @@
         <v>41910</v>
       </c>
       <c r="B253" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C253" s="2">
         <v>95</v>
@@ -8422,13 +8484,13 @@
         <v>41911</v>
       </c>
       <c r="B254" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F254" s="6">
         <v>12000</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -8436,13 +8498,13 @@
         <v>41914</v>
       </c>
       <c r="B255" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C255" s="2">
         <v>325</v>
       </c>
       <c r="G255" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -8450,7 +8512,7 @@
         <v>41917</v>
       </c>
       <c r="B256" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C256" s="2">
         <v>129</v>
@@ -8461,7 +8523,7 @@
         <v>41917</v>
       </c>
       <c r="B257" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D257" s="6">
         <v>6000</v>
@@ -8472,7 +8534,7 @@
         <v>41917</v>
       </c>
       <c r="B258" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D258" s="6">
         <v>150</v>
@@ -8516,7 +8578,7 @@
         <v>41925</v>
       </c>
       <c r="B262" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C262" s="2">
         <v>430</v>
@@ -8527,7 +8589,7 @@
         <v>41932</v>
       </c>
       <c r="B263" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D263" s="6">
         <v>6800</v>
@@ -8538,7 +8600,7 @@
         <v>41932</v>
       </c>
       <c r="B264" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D264" s="6">
         <v>150</v>
@@ -8549,7 +8611,7 @@
         <v>41932</v>
       </c>
       <c r="B265" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D265" s="6">
         <v>150</v>
@@ -8560,7 +8622,7 @@
         <v>41932</v>
       </c>
       <c r="B266" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D266" s="6">
         <v>1943</v>
@@ -8593,7 +8655,7 @@
         <v>41949</v>
       </c>
       <c r="B269" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D269" s="6">
         <v>6000</v>
@@ -8604,7 +8666,7 @@
         <v>41949</v>
       </c>
       <c r="B270" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D270" s="6">
         <v>150</v>
@@ -8626,7 +8688,7 @@
         <v>41955</v>
       </c>
       <c r="B272" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C272" s="2">
         <v>4767</v>
@@ -8648,7 +8710,7 @@
         <v>41957</v>
       </c>
       <c r="B274" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D274" s="6">
         <v>150</v>
@@ -8659,7 +8721,7 @@
         <v>41957</v>
       </c>
       <c r="B275" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D275" s="6">
         <v>150</v>
@@ -8670,7 +8732,7 @@
         <v>41959</v>
       </c>
       <c r="B276" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C276" s="2">
         <v>300</v>
@@ -8681,7 +8743,7 @@
         <v>41967</v>
       </c>
       <c r="B277" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D277" s="6">
         <v>858</v>
@@ -8714,7 +8776,7 @@
         <v>41981</v>
       </c>
       <c r="B280" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C280" s="2">
         <v>2200</v>
@@ -8736,7 +8798,7 @@
         <v>41982</v>
       </c>
       <c r="B282" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D282" s="6">
         <v>150</v>
@@ -8747,7 +8809,7 @@
         <v>41982</v>
       </c>
       <c r="B283" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D283" s="6">
         <v>150</v>
@@ -8758,7 +8820,7 @@
         <v>41982</v>
       </c>
       <c r="B284" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D284" s="6">
         <v>1277</v>
@@ -8769,7 +8831,7 @@
         <v>41983</v>
       </c>
       <c r="B285" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D285" s="6">
         <v>6000</v>
@@ -8780,7 +8842,7 @@
         <v>41983</v>
       </c>
       <c r="B286" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D286" s="6">
         <v>150</v>
@@ -8791,7 +8853,7 @@
         <v>41983</v>
       </c>
       <c r="B287" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D287" s="6">
         <v>967</v>
@@ -8802,7 +8864,7 @@
         <v>41985</v>
       </c>
       <c r="B288" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D288" s="6">
         <v>6600</v>
@@ -8813,7 +8875,7 @@
         <v>41986</v>
       </c>
       <c r="B289" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C289" s="2">
         <v>390</v>
@@ -8860,7 +8922,7 @@
         <v>42014</v>
       </c>
       <c r="B293" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D293" s="6">
         <v>6000</v>
@@ -8871,7 +8933,7 @@
         <v>42014</v>
       </c>
       <c r="B294" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D294" s="6">
         <v>150</v>
@@ -8904,7 +8966,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -8915,20 +8977,20 @@
         <v>42018</v>
       </c>
       <c r="B298" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D298" s="6">
         <v>150</v>
       </c>
     </row>
     <row r="299" spans="1:7" s="5" customFormat="1">
-      <c r="A299" s="17">
+      <c r="A299" s="13">
         <v>42031</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C299" s="18"/>
+        <v>210</v>
+      </c>
+      <c r="C299" s="14"/>
       <c r="D299" s="11">
         <v>936</v>
       </c>
@@ -8973,7 +9035,7 @@
         <v>42043</v>
       </c>
       <c r="B303" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C303" s="2">
         <v>2200</v>
@@ -8984,7 +9046,7 @@
         <v>42045</v>
       </c>
       <c r="B304" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D304" s="6">
         <v>6000</v>
@@ -8995,7 +9057,7 @@
         <v>42045</v>
       </c>
       <c r="B305" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D305" s="6">
         <v>150</v>
@@ -9006,7 +9068,7 @@
         <v>42045</v>
       </c>
       <c r="B306" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D306" s="6">
         <v>1424</v>
@@ -9028,16 +9090,13 @@
         <v>42062</v>
       </c>
       <c r="B308" t="s">
-        <v>218</v>
-      </c>
-      <c r="D308" s="6">
-        <v>13200</v>
+        <v>213</v>
       </c>
       <c r="F308" s="6">
         <v>13200</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -9045,7 +9104,7 @@
         <v>42062</v>
       </c>
       <c r="B309" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D309" s="6">
         <v>16800</v>
@@ -9056,7 +9115,7 @@
         <v>42063</v>
       </c>
       <c r="B310" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F310" s="6">
         <v>-13600</v>
@@ -9081,7 +9140,7 @@
         <v>42063</v>
       </c>
       <c r="B312" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D312" s="6">
         <v>123</v>
@@ -9092,7 +9151,7 @@
         <v>42063</v>
       </c>
       <c r="B313" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D313" s="6">
         <v>123</v>
@@ -9103,7 +9162,7 @@
         <v>42063</v>
       </c>
       <c r="B314" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D314" s="6">
         <v>940</v>
@@ -9114,7 +9173,7 @@
         <v>42063</v>
       </c>
       <c r="B315" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D315" s="6">
         <v>683</v>
@@ -9147,7 +9206,7 @@
         <v>42070</v>
       </c>
       <c r="B318" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C318" s="2">
         <v>140</v>
@@ -9158,7 +9217,7 @@
         <v>42070</v>
       </c>
       <c r="B319" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D319" s="6">
         <v>3000</v>
@@ -9169,7 +9228,7 @@
         <v>42070</v>
       </c>
       <c r="B320" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D320" s="6">
         <v>1000</v>
@@ -9180,7 +9239,7 @@
         <v>42074</v>
       </c>
       <c r="B321" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D321" s="6">
         <v>6000</v>
@@ -9191,7 +9250,7 @@
         <v>42074</v>
       </c>
       <c r="B322" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D322" s="6">
         <v>150</v>
@@ -9213,7 +9272,7 @@
         <v>42078</v>
       </c>
       <c r="B324" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C324" s="2">
         <v>4497</v>
@@ -9227,7 +9286,7 @@
         <v>42087</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D325" s="6">
         <v>612</v>
@@ -9257,13 +9316,13 @@
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="1">
-        <v>42105</v>
+        <v>42102</v>
       </c>
       <c r="B328" t="s">
-        <v>50</v>
-      </c>
-      <c r="D328" s="6">
-        <v>6000</v>
+        <v>59</v>
+      </c>
+      <c r="C328" s="2">
+        <v>2200</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -9271,10 +9330,10 @@
         <v>42105</v>
       </c>
       <c r="B329" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D329" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -9282,25 +9341,129 @@
         <v>42105</v>
       </c>
       <c r="B330" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D330" s="6">
-        <v>1100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B331" t="s">
+        <v>262</v>
+      </c>
+      <c r="D331" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1">
         <v>42107</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B332" t="s">
         <v>70</v>
       </c>
-      <c r="C331" s="2">
+      <c r="C332" s="2">
         <v>301</v>
       </c>
     </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1">
+        <v>42129</v>
+      </c>
+      <c r="B333" t="s">
+        <v>48</v>
+      </c>
+      <c r="C333" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1">
+        <v>42129</v>
+      </c>
+      <c r="B334" t="s">
+        <v>44</v>
+      </c>
+      <c r="C334" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1">
+        <v>42135</v>
+      </c>
+      <c r="B335" t="s">
+        <v>57</v>
+      </c>
+      <c r="D335" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1">
+        <v>42135</v>
+      </c>
+      <c r="B336" t="s">
+        <v>264</v>
+      </c>
+      <c r="D336" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1">
+        <v>42137</v>
+      </c>
+      <c r="B337" t="s">
+        <v>130</v>
+      </c>
+      <c r="C337" s="2">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1">
+        <v>42140</v>
+      </c>
+      <c r="B338" t="s">
+        <v>34</v>
+      </c>
+      <c r="F338" s="6">
+        <v>12000</v>
+      </c>
+      <c r="G338" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1">
+        <v>42164</v>
+      </c>
+      <c r="B344" t="s">
+        <v>267</v>
+      </c>
+      <c r="C344" s="2">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>42170</v>
+      </c>
+      <c r="B345" t="s">
+        <v>131</v>
+      </c>
+      <c r="C345" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G345" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -9698,7 +9861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>

--- a/trunk/交易紀錄/購屋款項.xlsx
+++ b/trunk/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -13,15 +13,15 @@
     <sheet name="借款" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$338</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="274">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1052,10 +1052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第3間預繳水+電+費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租約 2014/8/6~ 2015/2/28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1097,6 +1093,26 @@
   </si>
   <si>
     <t>租約 2015/7/6~2016/7/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間預繳水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間預繳電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先付1000，目前3.4.5.6.7月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,6 +1174,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1173,7 +1195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,6 +1239,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1586,9 +1611,9 @@
   </sheetPr>
   <dimension ref="A1:J343"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F319" sqref="F319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1605,19 +1630,19 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600</f>
-        <v>1184141</v>
+        <v>1207121</v>
       </c>
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C432)</f>
-        <v>1270438</v>
+        <v>1293418</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D432)</f>
-        <v>1389705</v>
+        <v>1399625</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>119267</v>
+        <v>106207</v>
       </c>
       <c r="F1" s="6">
         <f>SUBTOTAL(9,F3:F432)</f>
@@ -5130,7 +5155,7 @@
         <v>42063</v>
       </c>
       <c r="B310" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D310" s="6">
         <v>5587</v>
@@ -5228,22 +5253,22 @@
       <c r="A319" s="1">
         <v>42070</v>
       </c>
-      <c r="B319" t="s">
-        <v>258</v>
+      <c r="B319" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="D319" s="6">
-        <v>1000</v>
+        <v>750</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="1">
-        <v>42074</v>
-      </c>
-      <c r="B320" t="s">
-        <v>57</v>
+        <v>42070</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="D320" s="6">
-        <v>6000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5251,54 +5276,54 @@
         <v>42074</v>
       </c>
       <c r="B321" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="D321" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1">
-        <v>42075</v>
+        <v>42074</v>
       </c>
       <c r="B322" t="s">
-        <v>69</v>
-      </c>
-      <c r="C322" s="2">
-        <v>3146</v>
+        <v>263</v>
+      </c>
+      <c r="D322" s="6">
+        <v>150</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1">
-        <v>42078</v>
+        <v>42075</v>
       </c>
       <c r="B323" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="C323" s="2">
-        <v>4497</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1">
-        <v>42087</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D324" s="6">
-        <v>612</v>
+        <v>42078</v>
+      </c>
+      <c r="B324" t="s">
+        <v>259</v>
+      </c>
+      <c r="C324" s="2">
+        <v>4497</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1">
-        <v>42102</v>
-      </c>
-      <c r="B325" t="s">
-        <v>48</v>
-      </c>
-      <c r="D325" s="2">
-        <v>10000</v>
+        <v>42087</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D325" s="6">
+        <v>612</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5306,10 +5331,10 @@
         <v>42102</v>
       </c>
       <c r="B326" t="s">
-        <v>44</v>
-      </c>
-      <c r="C326" s="2">
-        <v>22747</v>
+        <v>48</v>
+      </c>
+      <c r="D326" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5317,21 +5342,21 @@
         <v>42102</v>
       </c>
       <c r="B327" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C327" s="2">
-        <v>2200</v>
+        <v>22747</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1">
-        <v>42105</v>
+        <v>42102</v>
       </c>
       <c r="B328" t="s">
-        <v>265</v>
-      </c>
-      <c r="D328" s="6">
-        <v>6000</v>
+        <v>59</v>
+      </c>
+      <c r="C328" s="2">
+        <v>2200</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5339,10 +5364,10 @@
         <v>42105</v>
       </c>
       <c r="B329" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D329" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5350,32 +5375,32 @@
         <v>42105</v>
       </c>
       <c r="B330" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D330" s="6">
-        <v>1100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1">
-        <v>42107</v>
+        <v>42105</v>
       </c>
       <c r="B331" t="s">
-        <v>70</v>
-      </c>
-      <c r="C331" s="2">
-        <v>301</v>
+        <v>261</v>
+      </c>
+      <c r="D331" s="6">
+        <v>1100</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1">
-        <v>42129</v>
+        <v>42107</v>
       </c>
       <c r="B332" t="s">
-        <v>48</v>
-      </c>
-      <c r="D332" s="2">
-        <v>10000</v>
+        <v>70</v>
+      </c>
+      <c r="C332" s="2">
+        <v>301</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5383,21 +5408,21 @@
         <v>42129</v>
       </c>
       <c r="B333" t="s">
-        <v>44</v>
-      </c>
-      <c r="C333" s="2">
-        <v>22747</v>
+        <v>48</v>
+      </c>
+      <c r="D333" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1">
-        <v>42135</v>
+        <v>42129</v>
       </c>
       <c r="B334" t="s">
-        <v>57</v>
-      </c>
-      <c r="D334" s="6">
-        <v>6000</v>
+        <v>44</v>
+      </c>
+      <c r="C334" s="2">
+        <v>22747</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5405,46 +5430,90 @@
         <v>42135</v>
       </c>
       <c r="B335" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="D335" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1">
-        <v>42137</v>
+        <v>42135</v>
       </c>
       <c r="B336" t="s">
-        <v>71</v>
-      </c>
-      <c r="C336" s="2">
-        <v>2267</v>
+        <v>263</v>
+      </c>
+      <c r="D336" s="6">
+        <v>150</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="1">
+        <v>42137</v>
+      </c>
+      <c r="B337" t="s">
+        <v>71</v>
+      </c>
+      <c r="C337" s="2">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="1">
         <v>42140</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B338" t="s">
         <v>34</v>
       </c>
-      <c r="D337" s="6">
+      <c r="D338" s="6">
         <v>12000</v>
       </c>
-      <c r="F337" s="6">
+      <c r="F338" s="6">
         <v>12000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B339" t="s">
+        <v>48</v>
+      </c>
+      <c r="D339" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B340" t="s">
+        <v>44</v>
+      </c>
+      <c r="C340" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="1">
+        <v>42164</v>
+      </c>
+      <c r="B341" t="s">
+        <v>266</v>
+      </c>
+      <c r="C341" s="2">
+        <v>5729</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="1">
-        <v>42164</v>
+        <v>42168</v>
       </c>
       <c r="B342" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C342" s="2">
-        <v>5729</v>
+        <v>233</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -5459,6 +5528,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -5470,10 +5540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:K344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -5489,19 +5559,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C437)</f>
-        <v>1184141</v>
+        <f>SUBTOTAL(9,C3:C436)</f>
+        <v>1207121</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D437)</f>
-        <v>850205</v>
+        <f>SUBTOTAL(9,D3:D436)</f>
+        <v>850125</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-333936</v>
+        <v>-356996</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F437)</f>
+        <f>SUBTOTAL(9,F3:F436)</f>
         <v>48200</v>
       </c>
     </row>
@@ -8118,7 +8188,7 @@
         <v>13600</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -8490,7 +8560,7 @@
         <v>12000</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -9227,22 +9297,28 @@
       <c r="A320" s="1">
         <v>42070</v>
       </c>
-      <c r="B320" t="s">
-        <v>258</v>
+      <c r="B320" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="D320" s="6">
-        <v>1000</v>
+        <v>750</v>
+      </c>
+      <c r="G320" s="15" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="1">
-        <v>42074</v>
-      </c>
-      <c r="B321" t="s">
-        <v>57</v>
+        <v>42070</v>
+      </c>
+      <c r="B321" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="D321" s="6">
-        <v>6000</v>
+        <v>170</v>
+      </c>
+      <c r="G321" s="15" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -9250,57 +9326,57 @@
         <v>42074</v>
       </c>
       <c r="B322" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="D322" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="1">
-        <v>42075</v>
+        <v>42074</v>
       </c>
       <c r="B323" t="s">
-        <v>69</v>
-      </c>
-      <c r="C323" s="2">
-        <v>3146</v>
+        <v>263</v>
+      </c>
+      <c r="D323" s="6">
+        <v>150</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="1">
-        <v>42078</v>
+        <v>42075</v>
       </c>
       <c r="B324" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="C324" s="2">
-        <v>4497</v>
-      </c>
-      <c r="G324" t="s">
-        <v>55</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="1">
-        <v>42087</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D325" s="6">
-        <v>612</v>
+        <v>42078</v>
+      </c>
+      <c r="B325" t="s">
+        <v>259</v>
+      </c>
+      <c r="C325" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G325" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="1">
-        <v>42102</v>
-      </c>
-      <c r="B326" t="s">
-        <v>48</v>
-      </c>
-      <c r="C326" s="2">
-        <v>10000</v>
+        <v>42087</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D326" s="6">
+        <v>612</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -9308,10 +9384,10 @@
         <v>42102</v>
       </c>
       <c r="B327" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C327" s="2">
-        <v>12747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -9319,21 +9395,21 @@
         <v>42102</v>
       </c>
       <c r="B328" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C328" s="2">
-        <v>2200</v>
+        <v>12747</v>
       </c>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="1">
-        <v>42105</v>
+        <v>42102</v>
       </c>
       <c r="B329" t="s">
-        <v>265</v>
-      </c>
-      <c r="D329" s="6">
-        <v>6000</v>
+        <v>59</v>
+      </c>
+      <c r="C329" s="2">
+        <v>2200</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -9341,10 +9417,10 @@
         <v>42105</v>
       </c>
       <c r="B330" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D330" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -9352,32 +9428,32 @@
         <v>42105</v>
       </c>
       <c r="B331" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D331" s="6">
-        <v>1100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="1">
-        <v>42107</v>
+        <v>42105</v>
       </c>
       <c r="B332" t="s">
-        <v>70</v>
-      </c>
-      <c r="C332" s="2">
-        <v>301</v>
+        <v>261</v>
+      </c>
+      <c r="D332" s="6">
+        <v>1100</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="1">
-        <v>42129</v>
+        <v>42107</v>
       </c>
       <c r="B333" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C333" s="2">
-        <v>10000</v>
+        <v>301</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -9385,21 +9461,21 @@
         <v>42129</v>
       </c>
       <c r="B334" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C334" s="2">
-        <v>12747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="1">
-        <v>42135</v>
+        <v>42129</v>
       </c>
       <c r="B335" t="s">
-        <v>57</v>
-      </c>
-      <c r="D335" s="6">
-        <v>6000</v>
+        <v>44</v>
+      </c>
+      <c r="C335" s="2">
+        <v>12747</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -9407,63 +9483,108 @@
         <v>42135</v>
       </c>
       <c r="B336" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="D336" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="1">
-        <v>42137</v>
+        <v>42135</v>
       </c>
       <c r="B337" t="s">
-        <v>130</v>
-      </c>
-      <c r="C337" s="2">
-        <v>2267</v>
+        <v>263</v>
+      </c>
+      <c r="D337" s="6">
+        <v>150</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="1">
+        <v>42137</v>
+      </c>
+      <c r="B338" t="s">
+        <v>130</v>
+      </c>
+      <c r="C338" s="2">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1">
         <v>42140</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B339" t="s">
         <v>34</v>
       </c>
-      <c r="F338" s="6">
+      <c r="F339" s="6">
         <v>12000</v>
       </c>
-      <c r="G338" s="8" t="s">
+      <c r="G339" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B340" t="s">
+        <v>48</v>
+      </c>
+      <c r="C340" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B341" t="s">
+        <v>44</v>
+      </c>
+      <c r="C341" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
+        <v>42164</v>
+      </c>
+      <c r="B342" t="s">
+        <v>266</v>
+      </c>
+      <c r="C342" s="2">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1">
+        <v>42168</v>
+      </c>
+      <c r="B343" t="s">
         <v>269</v>
+      </c>
+      <c r="C343" s="2">
+        <v>233</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="1">
-        <v>42164</v>
+        <v>42170</v>
       </c>
       <c r="B344" t="s">
-        <v>267</v>
+        <v>131</v>
       </c>
       <c r="C344" s="2">
-        <v>5729</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
-      <c r="A345" s="1">
-        <v>42170</v>
-      </c>
-      <c r="B345" t="s">
-        <v>131</v>
-      </c>
-      <c r="C345" s="2">
         <v>4497</v>
       </c>
-      <c r="G345" t="s">
+      <c r="G344" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:K2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/trunk/交易紀錄/購屋款項.xlsx
+++ b/trunk/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$366</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="303">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,14 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第1間修理浴室水龍頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第1間修理浴室水龍頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第1間機車車位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,22 +653,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第1間燈泡插座鐵絲氧化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第3間分享器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第1間熱水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第3間冷氣壓縮機電容線斷掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洗床套</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -717,18 +697,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第2間浴室燈泡蓮蓬頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租約 2014/9/6~ 2015/7/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第3間蓮蓬頭整組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第3間床墊2個</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,10 +765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第1間修門費用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電費9月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,10 +785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第3間修浴室洗手槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第2間11月電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1088,14 +1048,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2014/10/5~2015/7/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租約 2015/7/6~2016/7/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水費6月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1113,6 +1065,170 @@
   </si>
   <si>
     <t>先付1000，目前3.4.5.6.7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間5月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間6.7.8.9月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間預繳1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間5月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間3.4.5.6.7月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間5月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間6月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間6月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間5月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費6~7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間6月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗30，烘50，洗衣粉10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗床套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2015/7/1~2016/6/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2014/10/5~2015/6/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間浴室水龍頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間燈泡插座鐵絲氧化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間熱水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第3間冷氣壓縮機電容線斷掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第2間浴室燈泡蓮蓬頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間修門費用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第3間修浴室洗手槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間修床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第3間蓮蓬頭整組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間蓮蓬頭整組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間冷氣-電容&amp;風扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付2015年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間7月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間7月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間7月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第2間浴室燈泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間預收租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間預收水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預收機車位租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車位押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2015/8/1~2016/7/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠2元要找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2015/7/6~ 2016/7/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間8.9月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間7月電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1609,17 +1725,17 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J343"/>
+  <dimension ref="A1:J367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F319" sqref="F319"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D319" sqref="D319:D320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="6" customWidth="1"/>
@@ -1629,24 +1745,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
-        <f>C1-11000-13000+503-13000-13600-11000-11600-13600</f>
-        <v>1207121</v>
+        <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000</f>
+        <v>1244415</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C432)</f>
-        <v>1293418</v>
+        <f>SUBTOTAL(9,C3:C438)</f>
+        <v>1342712</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D432)</f>
-        <v>1399625</v>
+        <f>SUBTOTAL(9,D3:D438)</f>
+        <v>1517259</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>106207</v>
+        <v>174547</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F432)</f>
-        <v>48200</v>
+        <f>SUBTOTAL(9,F3:F438)</f>
+        <v>36700</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1677,7 +1793,7 @@
         <v>40913</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D3" s="6">
         <v>39733</v>
@@ -1688,7 +1804,7 @@
         <v>40913</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D4" s="6">
         <v>1800</v>
@@ -2196,7 +2312,7 @@
         <v>41067</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="C48" s="2">
         <v>1600</v>
@@ -2207,7 +2323,7 @@
         <v>41068</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2">
         <v>399</v>
@@ -2218,7 +2334,7 @@
         <v>41069</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C50" s="2">
         <v>500</v>
@@ -2229,7 +2345,7 @@
         <v>41069</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" s="2">
         <v>399</v>
@@ -2240,7 +2356,7 @@
         <v>41069</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2">
         <v>65</v>
@@ -2251,7 +2367,7 @@
         <v>41069</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D53" s="6">
         <v>1200</v>
@@ -2295,7 +2411,7 @@
         <v>41095</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="6">
         <v>6000</v>
@@ -2306,7 +2422,7 @@
         <v>41095</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="10">
         <v>110</v>
@@ -2340,7 +2456,7 @@
         <v>41101</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2">
         <v>2472</v>
@@ -2362,7 +2478,7 @@
         <v>41124</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D63" s="6">
         <v>6000</v>
@@ -2395,7 +2511,7 @@
         <v>41134</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2">
         <v>321</v>
@@ -2428,7 +2544,7 @@
         <v>41157</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D69" s="6">
         <v>6000</v>
@@ -2439,7 +2555,7 @@
         <v>41164</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2">
         <v>3166</v>
@@ -2450,7 +2566,7 @@
         <v>41164</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2">
         <v>4497</v>
@@ -2461,7 +2577,7 @@
         <v>41170</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2">
         <v>2200</v>
@@ -2472,7 +2588,7 @@
         <v>41172</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D73" s="6">
         <v>3436</v>
@@ -2485,7 +2601,7 @@
         <v>41172</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D74" s="6">
         <v>60500</v>
@@ -2498,7 +2614,7 @@
         <v>41172</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D75" s="6">
         <v>1800</v>
@@ -2537,7 +2653,7 @@
         <v>41187</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D78" s="6">
         <v>6000</v>
@@ -2548,7 +2664,7 @@
         <v>41218</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D79" s="6">
         <v>6000</v>
@@ -2581,7 +2697,7 @@
         <v>41221</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2">
         <v>2200</v>
@@ -2592,7 +2708,7 @@
         <v>41225</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2">
         <v>2869</v>
@@ -2603,7 +2719,7 @@
         <v>41231</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2">
         <v>361</v>
@@ -2614,7 +2730,7 @@
         <v>41242</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2">
         <v>250</v>
@@ -2625,7 +2741,7 @@
         <v>41247</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D86" s="6">
         <v>6000</v>
@@ -2658,7 +2774,7 @@
         <v>41256</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2">
         <v>440</v>
@@ -2669,7 +2785,7 @@
         <v>41257</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2">
         <v>4497</v>
@@ -2713,7 +2829,7 @@
         <v>41282</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2">
         <v>2200</v>
@@ -2724,7 +2840,7 @@
         <v>41285</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C95" s="2">
         <v>4062</v>
@@ -2735,7 +2851,7 @@
         <v>41286</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2">
         <v>1597</v>
@@ -2779,7 +2895,7 @@
         <v>41310</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C100" s="2">
         <v>13000</v>
@@ -2796,7 +2912,7 @@
         <v>41310</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D101" s="6">
         <v>1950</v>
@@ -2807,7 +2923,7 @@
         <v>41310</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D102" s="6">
         <v>7433</v>
@@ -2829,7 +2945,7 @@
         <v>41318</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2">
         <v>539</v>
@@ -2840,7 +2956,7 @@
         <v>41318</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2">
         <v>480</v>
@@ -2851,7 +2967,7 @@
         <v>41320</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D106" s="6">
         <v>13200</v>
@@ -2862,7 +2978,7 @@
         <v>41322</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2">
         <v>5380</v>
@@ -2873,7 +2989,7 @@
         <v>41322</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2">
         <v>1279</v>
@@ -2932,7 +3048,7 @@
         <v>41345</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2">
         <v>2722</v>
@@ -2954,7 +3070,7 @@
         <v>41353</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D115" s="6">
         <v>6500</v>
@@ -2998,7 +3114,7 @@
         <v>41377</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2">
         <v>370</v>
@@ -3009,7 +3125,7 @@
         <v>41386</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D120" s="6">
         <v>6500</v>
@@ -3042,7 +3158,7 @@
         <v>41408</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2">
         <v>4392</v>
@@ -3053,7 +3169,7 @@
         <v>41418</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D124" s="6">
         <v>6500</v>
@@ -3075,7 +3191,7 @@
         <v>41426</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2">
         <v>568</v>
@@ -3108,7 +3224,7 @@
         <v>41435</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C129" s="2">
         <v>2200</v>
@@ -3119,7 +3235,7 @@
         <v>41440</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2">
         <v>4497</v>
@@ -3130,7 +3246,7 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D131" s="6">
         <v>6230</v>
@@ -3141,7 +3257,7 @@
         <v>41441</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D132" s="6">
         <v>1800</v>
@@ -3152,7 +3268,7 @@
         <v>41441</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D133" s="6">
         <v>63800</v>
@@ -3163,7 +3279,7 @@
         <v>41441</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="C134" s="2">
         <v>400</v>
@@ -3174,7 +3290,7 @@
         <v>41444</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2">
         <v>13000</v>
@@ -3191,7 +3307,7 @@
         <v>41444</v>
       </c>
       <c r="B136" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D136" s="6">
         <v>600</v>
@@ -3202,7 +3318,7 @@
         <v>41444</v>
       </c>
       <c r="B137" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D137" s="6">
         <v>4158</v>
@@ -3213,7 +3329,7 @@
         <v>41450</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2">
         <v>81</v>
@@ -3224,7 +3340,7 @@
         <v>41450</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C139" s="2">
         <v>124</v>
@@ -3235,7 +3351,7 @@
         <v>41450</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C140" s="2">
         <v>20</v>
@@ -3246,7 +3362,7 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D141" s="6">
         <v>13600</v>
@@ -3261,7 +3377,7 @@
         <v>41451</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D142" s="6">
         <v>74800</v>
@@ -3273,7 +3389,7 @@
         <v>41451</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D143" s="6">
         <v>1200</v>
@@ -3306,7 +3422,7 @@
         <v>41466</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C146" s="2">
         <v>4526</v>
@@ -3317,7 +3433,7 @@
         <v>41486</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C147" s="2">
         <v>2200</v>
@@ -3328,7 +3444,7 @@
         <v>41487</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2">
         <v>489</v>
@@ -3383,7 +3499,7 @@
         <v>41528</v>
       </c>
       <c r="B153" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C153" s="2">
         <v>4647</v>
@@ -3394,7 +3510,7 @@
         <v>41532</v>
       </c>
       <c r="B154" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C154" s="2">
         <v>4497</v>
@@ -3405,7 +3521,7 @@
         <v>41534</v>
       </c>
       <c r="B155" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D155" s="2">
         <v>4917</v>
@@ -3416,7 +3532,7 @@
         <v>41534</v>
       </c>
       <c r="B156" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6">
@@ -3428,7 +3544,7 @@
         <v>41534</v>
       </c>
       <c r="B157" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6">
@@ -3440,7 +3556,7 @@
         <v>41542</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D158" s="6">
         <v>2874</v>
@@ -3451,7 +3567,7 @@
         <v>41542</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D159" s="6">
         <v>450</v>
@@ -3462,7 +3578,7 @@
         <v>41548</v>
       </c>
       <c r="B160" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C160" s="2">
         <v>370</v>
@@ -3473,7 +3589,7 @@
         <v>41549</v>
       </c>
       <c r="B161" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C161" s="2">
         <v>2200</v>
@@ -3528,7 +3644,7 @@
         <v>41590</v>
       </c>
       <c r="B166" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C166" s="2">
         <v>4187</v>
@@ -3539,7 +3655,7 @@
         <v>41607</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C167" s="2">
         <v>254</v>
@@ -3572,7 +3688,7 @@
         <v>41614</v>
       </c>
       <c r="B170" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C170" s="2">
         <v>2200</v>
@@ -3583,7 +3699,7 @@
         <v>41619</v>
       </c>
       <c r="B171" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D171" s="6">
         <v>2398</v>
@@ -3594,7 +3710,7 @@
         <v>41619</v>
       </c>
       <c r="B172" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D172" s="6">
         <v>300</v>
@@ -3605,7 +3721,7 @@
         <v>41621</v>
       </c>
       <c r="B173" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C173" s="2">
         <v>529</v>
@@ -3616,7 +3732,7 @@
         <v>41623</v>
       </c>
       <c r="B174" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C174" s="2">
         <v>4497</v>
@@ -3649,7 +3765,7 @@
         <v>41652</v>
       </c>
       <c r="B177" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C177" s="2">
         <v>2933</v>
@@ -3660,7 +3776,7 @@
         <v>41675</v>
       </c>
       <c r="B178" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D178" s="6">
         <v>6600</v>
@@ -3704,7 +3820,7 @@
         <v>41677</v>
       </c>
       <c r="B182" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C182" s="2">
         <v>2200</v>
@@ -3715,7 +3831,7 @@
         <v>41683</v>
       </c>
       <c r="B183" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C183" s="2">
         <v>410</v>
@@ -3726,7 +3842,7 @@
         <v>41694</v>
       </c>
       <c r="B184" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D184" s="6">
         <v>1336</v>
@@ -3737,7 +3853,7 @@
         <v>41694</v>
       </c>
       <c r="B185" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D185" s="6">
         <v>300</v>
@@ -3770,7 +3886,7 @@
         <v>41710</v>
       </c>
       <c r="B188" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C188" s="2">
         <v>2416</v>
@@ -3781,7 +3897,7 @@
         <v>41713</v>
       </c>
       <c r="B189" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C189" s="2">
         <v>4497</v>
@@ -3792,7 +3908,7 @@
         <v>41726</v>
       </c>
       <c r="B190" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D190" s="6">
         <v>1423</v>
@@ -3803,7 +3919,7 @@
         <v>41726</v>
       </c>
       <c r="B191" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D191" s="6">
         <v>300</v>
@@ -3891,7 +4007,7 @@
         <v>41787</v>
       </c>
       <c r="B199" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D199" s="2">
         <v>7734</v>
@@ -3902,7 +4018,7 @@
         <v>41787</v>
       </c>
       <c r="B200" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D200" s="2">
         <v>1800</v>
@@ -3913,7 +4029,7 @@
         <v>41787</v>
       </c>
       <c r="B201" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D201" s="2">
         <v>63800</v>
@@ -3924,7 +4040,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -3935,7 +4051,7 @@
         <v>41787</v>
       </c>
       <c r="B203" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C203" s="2">
         <v>519</v>
@@ -3946,7 +4062,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -3979,7 +4095,7 @@
         <v>41796</v>
       </c>
       <c r="B207" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C207" s="2">
         <v>2200</v>
@@ -3990,7 +4106,7 @@
         <v>41799</v>
       </c>
       <c r="B208" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C208" s="2">
         <v>4497</v>
@@ -4001,7 +4117,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -4023,7 +4139,7 @@
         <v>41821</v>
       </c>
       <c r="B211" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C211" s="2">
         <v>13600</v>
@@ -4040,7 +4156,7 @@
         <v>41821</v>
       </c>
       <c r="B212" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D212" s="6">
         <v>4258</v>
@@ -4051,7 +4167,7 @@
         <v>41821</v>
       </c>
       <c r="B213" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D213" s="6">
         <v>450</v>
@@ -4084,7 +4200,7 @@
         <v>41830</v>
       </c>
       <c r="B216" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C216" s="2">
         <v>4733</v>
@@ -4095,7 +4211,7 @@
         <v>41832</v>
       </c>
       <c r="B217" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C217" s="2">
         <v>90</v>
@@ -4106,7 +4222,7 @@
         <v>41832</v>
       </c>
       <c r="B218" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C218" s="2">
         <v>39</v>
@@ -4150,7 +4266,7 @@
         <v>41856</v>
       </c>
       <c r="B222" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D222" s="6">
         <v>11000</v>
@@ -4165,7 +4281,7 @@
         <v>41857</v>
       </c>
       <c r="B223" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D223" s="2">
         <v>13600</v>
@@ -4180,7 +4296,7 @@
         <v>41857</v>
       </c>
       <c r="B224" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D224" s="6">
         <v>6800</v>
@@ -4191,7 +4307,7 @@
         <v>41857</v>
       </c>
       <c r="B225" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D225" s="6">
         <v>150</v>
@@ -4202,7 +4318,7 @@
         <v>41857</v>
       </c>
       <c r="B226" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D226" s="6">
         <v>150</v>
@@ -4213,7 +4329,7 @@
         <v>41859</v>
       </c>
       <c r="B227" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C227" s="2">
         <v>2200</v>
@@ -4224,7 +4340,7 @@
         <v>41864</v>
       </c>
       <c r="B228" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C228" s="2">
         <v>400</v>
@@ -4257,7 +4373,7 @@
         <v>41888</v>
       </c>
       <c r="B231" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C231" s="2">
         <v>11000</v>
@@ -4274,7 +4390,7 @@
         <v>41888</v>
       </c>
       <c r="B232" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D232" s="6">
         <v>4824</v>
@@ -4285,7 +4401,7 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
@@ -4296,7 +4412,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -4307,7 +4423,7 @@
         <v>41888</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D235" s="6">
         <v>1500</v>
@@ -4318,7 +4434,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -4329,7 +4445,7 @@
         <v>41888</v>
       </c>
       <c r="B237" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C237" s="2">
         <v>20</v>
@@ -4340,7 +4456,7 @@
         <v>41888</v>
       </c>
       <c r="B238" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C238" s="2">
         <v>374</v>
@@ -4351,7 +4467,7 @@
         <v>41888</v>
       </c>
       <c r="B239" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C239" s="2">
         <v>4131</v>
@@ -4362,7 +4478,7 @@
         <v>41888</v>
       </c>
       <c r="B240" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C240" s="2">
         <v>79</v>
@@ -4373,7 +4489,7 @@
         <v>41893</v>
       </c>
       <c r="B241" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C241" s="2">
         <v>5665</v>
@@ -4384,7 +4500,7 @@
         <v>41897</v>
       </c>
       <c r="B242" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C242" s="2">
         <v>4497</v>
@@ -4395,7 +4511,7 @@
         <v>41897</v>
       </c>
       <c r="B243" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D243" s="6">
         <v>6800</v>
@@ -4406,7 +4522,7 @@
         <v>41897</v>
       </c>
       <c r="B244" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D244" s="6">
         <v>150</v>
@@ -4417,7 +4533,7 @@
         <v>41897</v>
       </c>
       <c r="B245" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D245" s="6">
         <v>150</v>
@@ -4428,7 +4544,7 @@
         <v>41910</v>
       </c>
       <c r="B246" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C246" s="2">
         <v>11600</v>
@@ -4468,7 +4584,7 @@
         <v>41910</v>
       </c>
       <c r="B249" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C249" s="2">
         <v>36733</v>
@@ -4479,7 +4595,7 @@
         <v>41910</v>
       </c>
       <c r="B250" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C250" s="2">
         <v>264</v>
@@ -4490,7 +4606,7 @@
         <v>41910</v>
       </c>
       <c r="B251" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C251" s="2">
         <v>3690</v>
@@ -4501,7 +4617,7 @@
         <v>41910</v>
       </c>
       <c r="B252" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C252" s="2">
         <v>95</v>
@@ -4512,7 +4628,7 @@
         <v>41911</v>
       </c>
       <c r="B253" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D253" s="6">
         <v>12000</v>
@@ -4527,7 +4643,7 @@
         <v>41914</v>
       </c>
       <c r="B254" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="C254" s="2">
         <v>325</v>
@@ -4538,7 +4654,7 @@
         <v>41917</v>
       </c>
       <c r="B255" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C255" s="2">
         <v>129</v>
@@ -4549,7 +4665,7 @@
         <v>41917</v>
       </c>
       <c r="B256" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D256" s="6">
         <v>6000</v>
@@ -4560,7 +4676,7 @@
         <v>41917</v>
       </c>
       <c r="B257" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D257" s="6">
         <v>150</v>
@@ -4593,7 +4709,7 @@
         <v>41920</v>
       </c>
       <c r="B260" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C260" s="2">
         <v>2200</v>
@@ -4604,7 +4720,7 @@
         <v>41925</v>
       </c>
       <c r="B261" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C261" s="2">
         <v>430</v>
@@ -4615,7 +4731,7 @@
         <v>41932</v>
       </c>
       <c r="B262" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D262" s="6">
         <v>6800</v>
@@ -4626,7 +4742,7 @@
         <v>41932</v>
       </c>
       <c r="B263" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D263" s="6">
         <v>150</v>
@@ -4637,7 +4753,7 @@
         <v>41932</v>
       </c>
       <c r="B264" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D264" s="6">
         <v>150</v>
@@ -4648,7 +4764,7 @@
         <v>41932</v>
       </c>
       <c r="B265" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D265" s="6">
         <v>1943</v>
@@ -4681,7 +4797,7 @@
         <v>41949</v>
       </c>
       <c r="B268" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D268" s="6">
         <v>6000</v>
@@ -4692,7 +4808,7 @@
         <v>41949</v>
       </c>
       <c r="B269" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D269" s="6">
         <v>150</v>
@@ -4703,7 +4819,7 @@
         <v>41953</v>
       </c>
       <c r="B270" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C270" s="6">
         <v>254</v>
@@ -4714,7 +4830,7 @@
         <v>41955</v>
       </c>
       <c r="B271" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C271" s="2">
         <v>4767</v>
@@ -4725,7 +4841,7 @@
         <v>41957</v>
       </c>
       <c r="B272" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D272" s="6">
         <v>6800</v>
@@ -4736,7 +4852,7 @@
         <v>41957</v>
       </c>
       <c r="B273" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D273" s="6">
         <v>150</v>
@@ -4747,7 +4863,7 @@
         <v>41957</v>
       </c>
       <c r="B274" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D274" s="6">
         <v>150</v>
@@ -4758,7 +4874,7 @@
         <v>41959</v>
       </c>
       <c r="B275" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="C275" s="2">
         <v>300</v>
@@ -4769,7 +4885,7 @@
         <v>41967</v>
       </c>
       <c r="B276" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D276" s="6">
         <v>858</v>
@@ -4802,7 +4918,7 @@
         <v>41981</v>
       </c>
       <c r="B279" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C279" s="2">
         <v>2200</v>
@@ -4813,7 +4929,7 @@
         <v>41982</v>
       </c>
       <c r="B280" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D280" s="6">
         <v>6800</v>
@@ -4824,7 +4940,7 @@
         <v>41982</v>
       </c>
       <c r="B281" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D281" s="6">
         <v>150</v>
@@ -4835,7 +4951,7 @@
         <v>41982</v>
       </c>
       <c r="B282" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D282" s="6">
         <v>150</v>
@@ -4846,7 +4962,7 @@
         <v>41982</v>
       </c>
       <c r="B283" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D283" s="6">
         <v>1277</v>
@@ -4857,7 +4973,7 @@
         <v>41983</v>
       </c>
       <c r="B284" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D284" s="6">
         <v>6000</v>
@@ -4868,7 +4984,7 @@
         <v>41983</v>
       </c>
       <c r="B285" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D285" s="6">
         <v>150</v>
@@ -4879,7 +4995,7 @@
         <v>41983</v>
       </c>
       <c r="B286" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D286" s="6">
         <v>967</v>
@@ -4890,7 +5006,7 @@
         <v>41985</v>
       </c>
       <c r="B287" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D287" s="6">
         <v>6600</v>
@@ -4901,7 +5017,7 @@
         <v>41986</v>
       </c>
       <c r="B288" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C288" s="2">
         <v>390</v>
@@ -4912,7 +5028,7 @@
         <v>41988</v>
       </c>
       <c r="B289" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C289" s="2">
         <v>4497</v>
@@ -4945,7 +5061,7 @@
         <v>42014</v>
       </c>
       <c r="B292" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D292" s="6">
         <v>6000</v>
@@ -4956,7 +5072,7 @@
         <v>42014</v>
       </c>
       <c r="B293" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D293" s="6">
         <v>150</v>
@@ -4967,7 +5083,7 @@
         <v>42017</v>
       </c>
       <c r="B294" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C294" s="2">
         <v>3278</v>
@@ -4978,7 +5094,7 @@
         <v>42018</v>
       </c>
       <c r="B295" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D295" s="6">
         <v>6800</v>
@@ -4989,7 +5105,7 @@
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D296" s="6">
         <v>150</v>
@@ -5000,7 +5116,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -5011,7 +5127,7 @@
         <v>42031</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C298" s="14"/>
       <c r="D298" s="11">
@@ -5058,7 +5174,7 @@
         <v>42043</v>
       </c>
       <c r="B302" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C302" s="2">
         <v>2200</v>
@@ -5069,7 +5185,7 @@
         <v>42045</v>
       </c>
       <c r="B303" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D303" s="6">
         <v>6000</v>
@@ -5080,7 +5196,7 @@
         <v>42045</v>
       </c>
       <c r="B304" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D304" s="6">
         <v>150</v>
@@ -5091,7 +5207,7 @@
         <v>42045</v>
       </c>
       <c r="B305" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D305" s="6">
         <v>1424</v>
@@ -5102,7 +5218,7 @@
         <v>42048</v>
       </c>
       <c r="B306" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C306" s="2">
         <v>370</v>
@@ -5113,7 +5229,7 @@
         <v>42062</v>
       </c>
       <c r="B307" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D307" s="6">
         <v>13200</v>
@@ -5127,7 +5243,7 @@
         <v>42062</v>
       </c>
       <c r="B308" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D308" s="6">
         <v>16800</v>
@@ -5138,7 +5254,7 @@
         <v>42063</v>
       </c>
       <c r="B309" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C309" s="2">
         <v>13600</v>
@@ -5155,7 +5271,7 @@
         <v>42063</v>
       </c>
       <c r="B310" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D310" s="6">
         <v>5587</v>
@@ -5166,7 +5282,7 @@
         <v>42063</v>
       </c>
       <c r="B311" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D311" s="6">
         <v>123</v>
@@ -5177,7 +5293,7 @@
         <v>42063</v>
       </c>
       <c r="B312" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D312" s="6">
         <v>123</v>
@@ -5188,7 +5304,7 @@
         <v>42063</v>
       </c>
       <c r="B313" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D313" s="6">
         <v>940</v>
@@ -5199,7 +5315,7 @@
         <v>42063</v>
       </c>
       <c r="B314" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D314" s="6">
         <v>683</v>
@@ -5232,7 +5348,7 @@
         <v>42070</v>
       </c>
       <c r="B317" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C317" s="2">
         <v>140</v>
@@ -5243,7 +5359,7 @@
         <v>42070</v>
       </c>
       <c r="B318" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D318" s="6">
         <v>3000</v>
@@ -5254,7 +5370,7 @@
         <v>42070</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D319" s="6">
         <v>750</v>
@@ -5265,7 +5381,7 @@
         <v>42070</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D320" s="6">
         <v>170</v>
@@ -5287,7 +5403,7 @@
         <v>42074</v>
       </c>
       <c r="B322" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D322" s="6">
         <v>150</v>
@@ -5309,7 +5425,7 @@
         <v>42078</v>
       </c>
       <c r="B324" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C324" s="2">
         <v>4497</v>
@@ -5320,7 +5436,7 @@
         <v>42087</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D325" s="6">
         <v>612</v>
@@ -5364,7 +5480,7 @@
         <v>42105</v>
       </c>
       <c r="B329" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D329" s="6">
         <v>6000</v>
@@ -5375,7 +5491,7 @@
         <v>42105</v>
       </c>
       <c r="B330" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D330" s="6">
         <v>150</v>
@@ -5386,7 +5502,7 @@
         <v>42105</v>
       </c>
       <c r="B331" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D331" s="6">
         <v>1100</v>
@@ -5430,7 +5546,7 @@
         <v>42135</v>
       </c>
       <c r="B335" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D335" s="6">
         <v>6000</v>
@@ -5441,13 +5557,13 @@
         <v>42135</v>
       </c>
       <c r="B336" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D336" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:7">
       <c r="A337" s="1">
         <v>42137</v>
       </c>
@@ -5458,7 +5574,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:7">
       <c r="A338" s="1">
         <v>42140</v>
       </c>
@@ -5472,63 +5588,324 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:7">
       <c r="A339" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D339" s="6">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B340" t="s">
+        <v>263</v>
+      </c>
+      <c r="D340" s="6">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B341" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
         <v>42160</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B342" t="s">
         <v>48</v>
       </c>
-      <c r="D339" s="2">
+      <c r="D342" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
-      <c r="A340" s="1">
+    <row r="343" spans="1:7">
+      <c r="A343" s="1">
         <v>42160</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B343" t="s">
         <v>44</v>
       </c>
-      <c r="C340" s="2">
+      <c r="C343" s="2">
         <v>22747</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
-      <c r="A341" s="1">
+    <row r="344" spans="1:7">
+      <c r="A344" s="1">
         <v>42164</v>
       </c>
-      <c r="B341" t="s">
-        <v>266</v>
-      </c>
-      <c r="C341" s="2">
+      <c r="B344" t="s">
+        <v>256</v>
+      </c>
+      <c r="C344" s="2">
         <v>5729</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
-      <c r="A342" s="1">
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
         <v>42168</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B345" t="s">
+        <v>257</v>
+      </c>
+      <c r="C345" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>42170</v>
+      </c>
+      <c r="B346" t="s">
+        <v>129</v>
+      </c>
+      <c r="C346" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B347" t="s">
+        <v>268</v>
+      </c>
+      <c r="D347" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B348" t="s">
         <v>269</v>
       </c>
-      <c r="C342" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="A343" s="1">
-        <v>42170</v>
-      </c>
-      <c r="B343" t="s">
-        <v>131</v>
-      </c>
-      <c r="C343" s="2">
-        <v>4497</v>
-      </c>
+      <c r="D348" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B349" t="s">
+        <v>270</v>
+      </c>
+      <c r="D349" s="6">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>42179</v>
+      </c>
+      <c r="B350" t="s">
+        <v>271</v>
+      </c>
+      <c r="C350" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B351" t="s">
+        <v>34</v>
+      </c>
+      <c r="C351" s="2">
+        <v>12000</v>
+      </c>
+      <c r="F351" s="6">
+        <v>-12000</v>
+      </c>
+      <c r="G351" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B352" t="s">
+        <v>273</v>
+      </c>
+      <c r="D352" s="6">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B353" t="s">
+        <v>275</v>
+      </c>
+      <c r="C353" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B354" t="s">
+        <v>285</v>
+      </c>
+      <c r="C354" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1">
+        <v>42187</v>
+      </c>
+      <c r="B355" t="s">
+        <v>288</v>
+      </c>
+      <c r="C355" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="1">
+        <v>42191</v>
+      </c>
+      <c r="B356" t="s">
+        <v>48</v>
+      </c>
+      <c r="D356" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="1">
+        <v>42191</v>
+      </c>
+      <c r="B357" t="s">
+        <v>44</v>
+      </c>
+      <c r="C357" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B358" t="s">
+        <v>290</v>
+      </c>
+      <c r="C358" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B359" t="s">
+        <v>291</v>
+      </c>
+      <c r="C359" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="1">
+        <v>42198</v>
+      </c>
+      <c r="B360" t="s">
+        <v>89</v>
+      </c>
+      <c r="C360" s="2">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B361" t="s">
+        <v>294</v>
+      </c>
+      <c r="D361" s="6">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B362" t="s">
+        <v>295</v>
+      </c>
+      <c r="D362" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B363" t="s">
+        <v>292</v>
+      </c>
+      <c r="D363" s="6">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B364" t="s">
+        <v>293</v>
+      </c>
+      <c r="C364" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B365" t="s">
+        <v>297</v>
+      </c>
+      <c r="D365" s="6">
+        <v>500</v>
+      </c>
+      <c r="F365" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B366" t="s">
+        <v>296</v>
+      </c>
+      <c r="D366" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -5540,17 +5917,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K344"/>
+  <dimension ref="A1:K368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="2" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
@@ -5559,20 +5936,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C436)</f>
-        <v>1207121</v>
+        <f>SUBTOTAL(9,C3:C443)</f>
+        <v>1244415</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D436)</f>
-        <v>850125</v>
+        <f>SUBTOTAL(9,D3:D443)</f>
+        <v>957559</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-356996</v>
+        <v>-286856</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F436)</f>
-        <v>48200</v>
+        <f>SUBTOTAL(9,F3:F443)</f>
+        <v>36700</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5603,7 +5980,7 @@
         <v>40913</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D3" s="6">
         <v>39733</v>
@@ -5614,7 +5991,7 @@
         <v>40913</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D4" s="6">
         <v>1800</v>
@@ -5645,7 +6022,7 @@
         <v>11000</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5659,7 +6036,7 @@
         <v>13000</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6388,7 @@
         <v>11600</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6120,7 +6497,7 @@
         <v>2750</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6128,7 +6505,7 @@
         <v>41067</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>287</v>
       </c>
       <c r="C48" s="2">
         <v>1600</v>
@@ -6139,7 +6516,7 @@
         <v>41068</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2">
         <v>399</v>
@@ -6150,7 +6527,7 @@
         <v>41069</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C50" s="2">
         <v>500</v>
@@ -6161,7 +6538,7 @@
         <v>41069</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" s="2">
         <v>399</v>
@@ -6172,7 +6549,7 @@
         <v>41069</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2">
         <v>65</v>
@@ -6183,7 +6560,7 @@
         <v>41069</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D53" s="6">
         <v>1200</v>
@@ -6227,7 +6604,7 @@
         <v>41095</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="6">
         <v>6000</v>
@@ -6238,7 +6615,7 @@
         <v>41095</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="10">
         <v>110</v>
@@ -6275,7 +6652,7 @@
         <v>41101</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2">
         <v>2472</v>
@@ -6297,7 +6674,7 @@
         <v>41124</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D63" s="6">
         <v>6000</v>
@@ -6330,7 +6707,7 @@
         <v>41134</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2">
         <v>321</v>
@@ -6363,7 +6740,7 @@
         <v>41157</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D69" s="6">
         <v>6000</v>
@@ -6374,7 +6751,7 @@
         <v>41164</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2">
         <v>3166</v>
@@ -6385,7 +6762,7 @@
         <v>41164</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2">
         <v>4497</v>
@@ -6399,7 +6776,7 @@
         <v>41170</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2">
         <v>2200</v>
@@ -6410,13 +6787,13 @@
         <v>41172</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D73" s="6">
         <v>3436</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="6"/>
@@ -6426,7 +6803,7 @@
         <v>41172</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D74" s="6">
         <v>60500</v>
@@ -6439,7 +6816,7 @@
         <v>41172</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D75" s="6">
         <v>1800</v>
@@ -6478,7 +6855,7 @@
         <v>41187</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D78" s="6">
         <v>6000</v>
@@ -6489,7 +6866,7 @@
         <v>41218</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D79" s="6">
         <v>6000</v>
@@ -6522,7 +6899,7 @@
         <v>41221</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2">
         <v>2200</v>
@@ -6533,7 +6910,7 @@
         <v>41225</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2">
         <v>2869</v>
@@ -6544,7 +6921,7 @@
         <v>41231</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2">
         <v>361</v>
@@ -6555,7 +6932,7 @@
         <v>41242</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2">
         <v>250</v>
@@ -6566,7 +6943,7 @@
         <v>41247</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D86" s="6">
         <v>6000</v>
@@ -6599,7 +6976,7 @@
         <v>41256</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2">
         <v>440</v>
@@ -6610,7 +6987,7 @@
         <v>41257</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2">
         <v>4497</v>
@@ -6657,7 +7034,7 @@
         <v>41282</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2">
         <v>2200</v>
@@ -6668,7 +7045,7 @@
         <v>41285</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C95" s="2">
         <v>4062</v>
@@ -6679,13 +7056,13 @@
         <v>41286</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2">
         <v>1597</v>
       </c>
       <c r="G96" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -6726,7 +7103,7 @@
         <v>41310</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F100" s="6">
         <v>-13000</v>
@@ -6740,7 +7117,7 @@
         <v>41310</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D101" s="6">
         <v>1950</v>
@@ -6751,13 +7128,13 @@
         <v>41310</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D102" s="6">
         <v>7433</v>
       </c>
       <c r="G102" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -6776,7 +7153,7 @@
         <v>41318</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2">
         <v>539</v>
@@ -6787,13 +7164,13 @@
         <v>41318</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C105" s="12">
         <v>480</v>
       </c>
       <c r="G105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -6801,13 +7178,13 @@
         <v>41320</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D106" s="6">
         <v>13200</v>
       </c>
       <c r="G106" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -6815,7 +7192,7 @@
         <v>41322</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C107" s="2">
         <v>5380</v>
@@ -6826,7 +7203,7 @@
         <v>41322</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C108" s="2">
         <v>1279</v>
@@ -6843,7 +7220,7 @@
         <v>13000</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -6884,7 +7261,7 @@
         <v>41345</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2">
         <v>2722</v>
@@ -6909,7 +7286,7 @@
         <v>41353</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D115" s="6">
         <v>6500</v>
@@ -6953,7 +7330,7 @@
         <v>41377</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2">
         <v>370</v>
@@ -6964,7 +7341,7 @@
         <v>41386</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D120" s="6">
         <v>6500</v>
@@ -6997,7 +7374,7 @@
         <v>41408</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2">
         <v>4392</v>
@@ -7008,7 +7385,7 @@
         <v>41418</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D124" s="6">
         <v>6500</v>
@@ -7030,7 +7407,7 @@
         <v>41426</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2">
         <v>568</v>
@@ -7063,7 +7440,7 @@
         <v>41435</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C129" s="2">
         <v>2200</v>
@@ -7074,7 +7451,7 @@
         <v>41440</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2">
         <v>4497</v>
@@ -7088,13 +7465,13 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D131" s="6">
         <v>6230</v>
       </c>
       <c r="G131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -7102,7 +7479,7 @@
         <v>41441</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D132" s="6">
         <v>1800</v>
@@ -7113,7 +7490,7 @@
         <v>41441</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D133" s="6">
         <v>63800</v>
@@ -7124,7 +7501,7 @@
         <v>41441</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="C134" s="2">
         <v>400</v>
@@ -7135,7 +7512,7 @@
         <v>41444</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F135" s="6">
         <v>-13000</v>
@@ -7149,7 +7526,7 @@
         <v>41444</v>
       </c>
       <c r="B136" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D136" s="6">
         <v>600</v>
@@ -7160,13 +7537,13 @@
         <v>41444</v>
       </c>
       <c r="B137" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D137" s="6">
         <v>4158</v>
       </c>
       <c r="G137" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -7174,13 +7551,13 @@
         <v>41450</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2">
         <v>81</v>
       </c>
       <c r="G138" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -7188,7 +7565,7 @@
         <v>41450</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C139" s="2">
         <v>124</v>
@@ -7199,7 +7576,7 @@
         <v>41450</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C140" s="2">
         <v>20</v>
@@ -7210,13 +7587,13 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F141" s="6">
         <v>13600</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -7224,7 +7601,7 @@
         <v>41451</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D142" s="6">
         <v>74800</v>
@@ -7235,7 +7612,7 @@
         <v>41451</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D143" s="6">
         <v>1200</v>
@@ -7268,7 +7645,7 @@
         <v>41466</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C146" s="2">
         <v>4526</v>
@@ -7279,7 +7656,7 @@
         <v>41486</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C147" s="2">
         <v>2200</v>
@@ -7290,7 +7667,7 @@
         <v>41487</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2">
         <v>489</v>
@@ -7345,7 +7722,7 @@
         <v>41528</v>
       </c>
       <c r="B153" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C153" s="2">
         <v>4647</v>
@@ -7356,7 +7733,7 @@
         <v>41532</v>
       </c>
       <c r="B154" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C154" s="2">
         <v>4497</v>
@@ -7370,13 +7747,13 @@
         <v>41534</v>
       </c>
       <c r="B155" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D155" s="2">
         <v>4917</v>
       </c>
       <c r="G155" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -7384,7 +7761,7 @@
         <v>41534</v>
       </c>
       <c r="B156" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6">
@@ -7396,7 +7773,7 @@
         <v>41534</v>
       </c>
       <c r="B157" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6">
@@ -7408,13 +7785,13 @@
         <v>41542</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D158" s="6">
         <v>2874</v>
       </c>
       <c r="G158" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -7422,13 +7799,13 @@
         <v>41542</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D159" s="6">
         <v>450</v>
       </c>
       <c r="G159" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -7436,7 +7813,7 @@
         <v>41548</v>
       </c>
       <c r="B160" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C160" s="2">
         <v>370</v>
@@ -7447,7 +7824,7 @@
         <v>41549</v>
       </c>
       <c r="B161" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C161" s="2">
         <v>2200</v>
@@ -7502,7 +7879,7 @@
         <v>41590</v>
       </c>
       <c r="B166" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C166" s="2">
         <v>4187</v>
@@ -7513,7 +7890,7 @@
         <v>41607</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C167" s="2">
         <v>254</v>
@@ -7546,7 +7923,7 @@
         <v>41614</v>
       </c>
       <c r="B170" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C170" s="2">
         <v>2200</v>
@@ -7557,13 +7934,13 @@
         <v>41619</v>
       </c>
       <c r="B171" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D171" s="6">
         <v>2398</v>
       </c>
       <c r="G171" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -7571,13 +7948,13 @@
         <v>41619</v>
       </c>
       <c r="B172" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D172" s="6">
         <v>300</v>
       </c>
       <c r="G172" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -7585,7 +7962,7 @@
         <v>41621</v>
       </c>
       <c r="B173" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C173" s="2">
         <v>529</v>
@@ -7596,7 +7973,7 @@
         <v>41623</v>
       </c>
       <c r="B174" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C174" s="2">
         <v>4497</v>
@@ -7632,7 +8009,7 @@
         <v>41652</v>
       </c>
       <c r="B177" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C177" s="2">
         <v>2933</v>
@@ -7643,13 +8020,13 @@
         <v>41675</v>
       </c>
       <c r="B178" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D178" s="6">
         <v>6600</v>
       </c>
       <c r="G178" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -7691,7 +8068,7 @@
         <v>41677</v>
       </c>
       <c r="B182" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C182" s="2">
         <v>2200</v>
@@ -7702,7 +8079,7 @@
         <v>41683</v>
       </c>
       <c r="B183" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C183" s="2">
         <v>410</v>
@@ -7713,13 +8090,13 @@
         <v>41694</v>
       </c>
       <c r="B184" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D184" s="6">
         <v>1336</v>
       </c>
       <c r="G184" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -7727,13 +8104,13 @@
         <v>41694</v>
       </c>
       <c r="B185" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D185" s="6">
         <v>300</v>
       </c>
       <c r="G185" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -7763,7 +8140,7 @@
         <v>41710</v>
       </c>
       <c r="B188" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C188" s="2">
         <v>2416</v>
@@ -7774,7 +8151,7 @@
         <v>41713</v>
       </c>
       <c r="B189" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C189" s="2">
         <v>4497</v>
@@ -7788,13 +8165,13 @@
         <v>41726</v>
       </c>
       <c r="B190" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D190" s="6">
         <v>1423</v>
       </c>
       <c r="G190" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -7802,13 +8179,13 @@
         <v>41726</v>
       </c>
       <c r="B191" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D191" s="6">
         <v>300</v>
       </c>
       <c r="G191" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -7893,13 +8270,13 @@
         <v>41787</v>
       </c>
       <c r="B199" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D199" s="2">
         <v>7734</v>
       </c>
       <c r="G199" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -7907,7 +8284,7 @@
         <v>41787</v>
       </c>
       <c r="B200" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D200" s="2">
         <v>1800</v>
@@ -7918,7 +8295,7 @@
         <v>41787</v>
       </c>
       <c r="B201" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D201" s="2">
         <v>63800</v>
@@ -7929,7 +8306,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -7940,7 +8317,7 @@
         <v>41787</v>
       </c>
       <c r="B203" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C203" s="2">
         <v>519</v>
@@ -7951,7 +8328,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -7984,7 +8361,7 @@
         <v>41796</v>
       </c>
       <c r="B207" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C207" s="2">
         <v>2200</v>
@@ -7995,7 +8372,7 @@
         <v>41799</v>
       </c>
       <c r="B208" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C208" s="2">
         <v>4497</v>
@@ -8009,7 +8386,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -8031,7 +8408,7 @@
         <v>41821</v>
       </c>
       <c r="B211" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F211" s="6">
         <v>-13600</v>
@@ -8045,13 +8422,13 @@
         <v>41821</v>
       </c>
       <c r="B212" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D212" s="6">
         <v>4258</v>
       </c>
       <c r="G212" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -8059,13 +8436,13 @@
         <v>41821</v>
       </c>
       <c r="B213" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D213" s="6">
         <v>450</v>
       </c>
       <c r="G213" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -8095,7 +8472,7 @@
         <v>41830</v>
       </c>
       <c r="B216" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C216" s="2">
         <v>4733</v>
@@ -8106,13 +8483,13 @@
         <v>41832</v>
       </c>
       <c r="B217" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C217" s="2">
         <v>90</v>
       </c>
       <c r="G217" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -8120,13 +8497,13 @@
         <v>41832</v>
       </c>
       <c r="B218" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C218" s="2">
         <v>39</v>
       </c>
       <c r="G218" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -8167,13 +8544,13 @@
         <v>41856</v>
       </c>
       <c r="B222" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F222" s="6">
         <v>11000</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>175</v>
+        <v>300</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -8181,14 +8558,14 @@
         <v>41857</v>
       </c>
       <c r="B223" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D223" s="2"/>
       <c r="F223" s="2">
         <v>13600</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -8196,7 +8573,7 @@
         <v>41857</v>
       </c>
       <c r="B224" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D224" s="6">
         <v>6800</v>
@@ -8207,7 +8584,7 @@
         <v>41857</v>
       </c>
       <c r="B225" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D225" s="6">
         <v>150</v>
@@ -8218,7 +8595,7 @@
         <v>41857</v>
       </c>
       <c r="B226" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D226" s="6">
         <v>150</v>
@@ -8229,7 +8606,7 @@
         <v>41859</v>
       </c>
       <c r="B227" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C227" s="2">
         <v>2200</v>
@@ -8240,7 +8617,7 @@
         <v>41864</v>
       </c>
       <c r="B228" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C228" s="2">
         <v>400</v>
@@ -8273,7 +8650,7 @@
         <v>41888</v>
       </c>
       <c r="B231" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F231" s="6">
         <v>-11000</v>
@@ -8287,13 +8664,13 @@
         <v>41888</v>
       </c>
       <c r="B232" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D232" s="6">
         <v>4824</v>
       </c>
       <c r="G232" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -8301,13 +8678,13 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
       </c>
       <c r="G233" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -8315,7 +8692,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -8326,7 +8703,7 @@
         <v>41888</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D235" s="6">
         <v>1500</v>
@@ -8337,7 +8714,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -8348,7 +8725,7 @@
         <v>41888</v>
       </c>
       <c r="B237" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C237" s="2">
         <v>20</v>
@@ -8359,13 +8736,13 @@
         <v>41888</v>
       </c>
       <c r="B238" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C238" s="2">
         <v>374</v>
       </c>
       <c r="G238" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -8373,7 +8750,7 @@
         <v>41888</v>
       </c>
       <c r="B239" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C239" s="2">
         <v>4131</v>
@@ -8384,7 +8761,7 @@
         <v>41888</v>
       </c>
       <c r="B240" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C240" s="2">
         <v>79</v>
@@ -8395,7 +8772,7 @@
         <v>41893</v>
       </c>
       <c r="B241" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C241" s="2">
         <v>5665</v>
@@ -8406,7 +8783,7 @@
         <v>41897</v>
       </c>
       <c r="B242" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C242" s="2">
         <v>4497</v>
@@ -8420,7 +8797,7 @@
         <v>41897</v>
       </c>
       <c r="B243" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D243" s="6">
         <v>6800</v>
@@ -8431,7 +8808,7 @@
         <v>41897</v>
       </c>
       <c r="B244" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D244" s="6">
         <v>150</v>
@@ -8442,7 +8819,7 @@
         <v>41897</v>
       </c>
       <c r="B245" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D245" s="6">
         <v>150</v>
@@ -8453,7 +8830,7 @@
         <v>41910</v>
       </c>
       <c r="B246" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F246" s="6">
         <f>-11600</f>
@@ -8468,13 +8845,13 @@
         <v>41910</v>
       </c>
       <c r="B247" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D247" s="6">
         <v>6920</v>
       </c>
       <c r="G247" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -8482,13 +8859,13 @@
         <v>41910</v>
       </c>
       <c r="B248" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D248" s="6">
         <v>550</v>
       </c>
       <c r="G248" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -8496,7 +8873,7 @@
         <v>41910</v>
       </c>
       <c r="B249" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D249" s="6">
         <v>500</v>
@@ -8507,7 +8884,7 @@
         <v>41910</v>
       </c>
       <c r="B250" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C250" s="2">
         <v>36733</v>
@@ -8518,13 +8895,13 @@
         <v>41910</v>
       </c>
       <c r="B251" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C251" s="2">
         <v>264</v>
       </c>
       <c r="G251" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -8532,7 +8909,7 @@
         <v>41910</v>
       </c>
       <c r="B252" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C252" s="2">
         <v>3690</v>
@@ -8543,7 +8920,7 @@
         <v>41910</v>
       </c>
       <c r="B253" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C253" s="2">
         <v>95</v>
@@ -8554,13 +8931,13 @@
         <v>41911</v>
       </c>
       <c r="B254" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F254" s="6">
         <v>12000</v>
       </c>
-      <c r="G254" s="8" t="s">
-        <v>267</v>
+      <c r="G254" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -8568,13 +8945,13 @@
         <v>41914</v>
       </c>
       <c r="B255" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="C255" s="2">
         <v>325</v>
       </c>
       <c r="G255" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -8582,7 +8959,7 @@
         <v>41917</v>
       </c>
       <c r="B256" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C256" s="2">
         <v>129</v>
@@ -8593,7 +8970,7 @@
         <v>41917</v>
       </c>
       <c r="B257" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D257" s="6">
         <v>6000</v>
@@ -8604,7 +8981,7 @@
         <v>41917</v>
       </c>
       <c r="B258" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D258" s="6">
         <v>150</v>
@@ -8637,7 +9014,7 @@
         <v>41920</v>
       </c>
       <c r="B261" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C261" s="2">
         <v>2200</v>
@@ -8648,7 +9025,7 @@
         <v>41925</v>
       </c>
       <c r="B262" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C262" s="2">
         <v>430</v>
@@ -8659,7 +9036,7 @@
         <v>41932</v>
       </c>
       <c r="B263" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D263" s="6">
         <v>6800</v>
@@ -8670,7 +9047,7 @@
         <v>41932</v>
       </c>
       <c r="B264" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D264" s="6">
         <v>150</v>
@@ -8681,7 +9058,7 @@
         <v>41932</v>
       </c>
       <c r="B265" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D265" s="6">
         <v>150</v>
@@ -8692,7 +9069,7 @@
         <v>41932</v>
       </c>
       <c r="B266" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D266" s="6">
         <v>1943</v>
@@ -8725,7 +9102,7 @@
         <v>41949</v>
       </c>
       <c r="B269" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D269" s="6">
         <v>6000</v>
@@ -8736,7 +9113,7 @@
         <v>41949</v>
       </c>
       <c r="B270" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D270" s="6">
         <v>150</v>
@@ -8747,7 +9124,7 @@
         <v>41953</v>
       </c>
       <c r="B271" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C271" s="6">
         <v>254</v>
@@ -8758,68 +9135,68 @@
         <v>41955</v>
       </c>
       <c r="B272" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C272" s="2">
         <v>4767</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>41957</v>
       </c>
       <c r="B273" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D273" s="6">
         <v>6800</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>41957</v>
       </c>
       <c r="B274" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D274" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>41957</v>
       </c>
       <c r="B275" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D275" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>41959</v>
       </c>
       <c r="B276" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="C276" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>41967</v>
       </c>
       <c r="B277" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D277" s="6">
         <v>858</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>41978</v>
       </c>
@@ -8830,7 +9207,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>41978</v>
       </c>
@@ -8841,103 +9218,106 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>41981</v>
       </c>
       <c r="B280" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C280" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>41982</v>
       </c>
       <c r="B281" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D281" s="6">
         <v>6800</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>41982</v>
       </c>
       <c r="B282" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D282" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>41982</v>
       </c>
       <c r="B283" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D283" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>41982</v>
       </c>
       <c r="B284" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D284" s="6">
         <v>1277</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>41983</v>
       </c>
       <c r="B285" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D285" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>41983</v>
       </c>
       <c r="B286" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D286" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>41983</v>
       </c>
       <c r="B287" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D287" s="6">
         <v>967</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>41985</v>
       </c>
       <c r="B288" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D288" s="6">
         <v>6600</v>
+      </c>
+      <c r="G288" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8945,7 +9325,7 @@
         <v>41986</v>
       </c>
       <c r="B289" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C289" s="2">
         <v>390</v>
@@ -8956,7 +9336,7 @@
         <v>41988</v>
       </c>
       <c r="B290" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C290" s="2">
         <v>4497</v>
@@ -8992,7 +9372,7 @@
         <v>42014</v>
       </c>
       <c r="B293" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D293" s="6">
         <v>6000</v>
@@ -9003,7 +9383,7 @@
         <v>42014</v>
       </c>
       <c r="B294" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D294" s="6">
         <v>150</v>
@@ -9014,7 +9394,7 @@
         <v>42017</v>
       </c>
       <c r="B295" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C295" s="2">
         <v>3278</v>
@@ -9025,7 +9405,7 @@
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D296" s="6">
         <v>6800</v>
@@ -9036,7 +9416,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -9047,7 +9427,7 @@
         <v>42018</v>
       </c>
       <c r="B298" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D298" s="6">
         <v>150</v>
@@ -9058,7 +9438,7 @@
         <v>42031</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C299" s="14"/>
       <c r="D299" s="11">
@@ -9105,7 +9485,7 @@
         <v>42043</v>
       </c>
       <c r="B303" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C303" s="2">
         <v>2200</v>
@@ -9116,7 +9496,7 @@
         <v>42045</v>
       </c>
       <c r="B304" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D304" s="6">
         <v>6000</v>
@@ -9127,7 +9507,7 @@
         <v>42045</v>
       </c>
       <c r="B305" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D305" s="6">
         <v>150</v>
@@ -9138,7 +9518,7 @@
         <v>42045</v>
       </c>
       <c r="B306" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D306" s="6">
         <v>1424</v>
@@ -9149,7 +9529,7 @@
         <v>42048</v>
       </c>
       <c r="B307" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C307" s="2">
         <v>370</v>
@@ -9160,13 +9540,13 @@
         <v>42062</v>
       </c>
       <c r="B308" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F308" s="6">
         <v>13200</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -9174,7 +9554,7 @@
         <v>42062</v>
       </c>
       <c r="B309" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D309" s="6">
         <v>16800</v>
@@ -9185,7 +9565,7 @@
         <v>42063</v>
       </c>
       <c r="B310" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F310" s="6">
         <v>-13600</v>
@@ -9210,7 +9590,7 @@
         <v>42063</v>
       </c>
       <c r="B312" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D312" s="6">
         <v>123</v>
@@ -9221,7 +9601,7 @@
         <v>42063</v>
       </c>
       <c r="B313" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D313" s="6">
         <v>123</v>
@@ -9232,7 +9612,7 @@
         <v>42063</v>
       </c>
       <c r="B314" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D314" s="6">
         <v>940</v>
@@ -9243,7 +9623,7 @@
         <v>42063</v>
       </c>
       <c r="B315" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D315" s="6">
         <v>683</v>
@@ -9276,7 +9656,7 @@
         <v>42070</v>
       </c>
       <c r="B318" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C318" s="2">
         <v>140</v>
@@ -9287,7 +9667,7 @@
         <v>42070</v>
       </c>
       <c r="B319" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D319" s="6">
         <v>3000</v>
@@ -9298,13 +9678,13 @@
         <v>42070</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D320" s="6">
         <v>750</v>
       </c>
       <c r="G320" s="15" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -9312,13 +9692,13 @@
         <v>42070</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D321" s="6">
         <v>170</v>
       </c>
       <c r="G321" s="15" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -9337,7 +9717,7 @@
         <v>42074</v>
       </c>
       <c r="B323" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D323" s="6">
         <v>150</v>
@@ -9359,7 +9739,7 @@
         <v>42078</v>
       </c>
       <c r="B325" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C325" s="2">
         <v>4497</v>
@@ -9373,7 +9753,7 @@
         <v>42087</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D326" s="6">
         <v>612</v>
@@ -9417,7 +9797,7 @@
         <v>42105</v>
       </c>
       <c r="B330" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D330" s="6">
         <v>6000</v>
@@ -9428,7 +9808,7 @@
         <v>42105</v>
       </c>
       <c r="B331" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D331" s="6">
         <v>150</v>
@@ -9439,7 +9819,7 @@
         <v>42105</v>
       </c>
       <c r="B332" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D332" s="6">
         <v>1100</v>
@@ -9494,7 +9874,7 @@
         <v>42135</v>
       </c>
       <c r="B337" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D337" s="6">
         <v>150</v>
@@ -9505,7 +9885,7 @@
         <v>42137</v>
       </c>
       <c r="B338" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C338" s="2">
         <v>2267</v>
@@ -9522,65 +9902,345 @@
         <v>12000</v>
       </c>
       <c r="G339" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="1">
-        <v>42160</v>
-      </c>
-      <c r="B340" t="s">
-        <v>48</v>
-      </c>
-      <c r="C340" s="2">
-        <v>10000</v>
-      </c>
+        <v>42159</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D340" s="6">
+        <v>653</v>
+      </c>
+      <c r="G340" s="5"/>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="1">
-        <v>42160</v>
+        <v>42159</v>
       </c>
       <c r="B341" t="s">
-        <v>44</v>
-      </c>
-      <c r="C341" s="2">
-        <v>12747</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="D341" s="6">
+        <v>26400</v>
+      </c>
+      <c r="G341" s="5"/>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="1">
-        <v>42164</v>
-      </c>
-      <c r="B342" t="s">
-        <v>266</v>
-      </c>
-      <c r="C342" s="2">
-        <v>5729</v>
+        <v>42159</v>
+      </c>
+      <c r="B342" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D342" s="6">
+        <v>300</v>
+      </c>
+      <c r="G342" s="15" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="1">
-        <v>42168</v>
-      </c>
-      <c r="B343" t="s">
-        <v>269</v>
-      </c>
-      <c r="C343" s="2">
-        <v>233</v>
-      </c>
+        <v>42159</v>
+      </c>
+      <c r="B343" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G343" s="5"/>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B344" t="s">
+        <v>48</v>
+      </c>
+      <c r="C344" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B345" t="s">
+        <v>44</v>
+      </c>
+      <c r="C345" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>42164</v>
+      </c>
+      <c r="B346" t="s">
+        <v>256</v>
+      </c>
+      <c r="C346" s="2">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>42168</v>
+      </c>
+      <c r="B347" t="s">
+        <v>257</v>
+      </c>
+      <c r="C347" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1">
         <v>42170</v>
       </c>
-      <c r="B344" t="s">
-        <v>131</v>
-      </c>
-      <c r="C344" s="2">
+      <c r="B348" t="s">
+        <v>129</v>
+      </c>
+      <c r="C348" s="2">
         <v>4497</v>
       </c>
-      <c r="G344" t="s">
+      <c r="G348" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B349" t="s">
+        <v>268</v>
+      </c>
+      <c r="D349" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B350" t="s">
+        <v>269</v>
+      </c>
+      <c r="D350" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B351" t="s">
+        <v>270</v>
+      </c>
+      <c r="D351" s="6">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>42179</v>
+      </c>
+      <c r="B352" t="s">
+        <v>271</v>
+      </c>
+      <c r="C352" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B353" t="s">
+        <v>272</v>
+      </c>
+      <c r="F353" s="6">
+        <v>-12000</v>
+      </c>
+      <c r="G353" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B354" t="s">
+        <v>273</v>
+      </c>
+      <c r="D354" s="6">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B355" t="s">
+        <v>275</v>
+      </c>
+      <c r="C355" s="2">
+        <v>90</v>
+      </c>
+      <c r="G355" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B356" t="s">
+        <v>285</v>
+      </c>
+      <c r="C356" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1">
+        <v>42187</v>
+      </c>
+      <c r="B357" t="s">
+        <v>288</v>
+      </c>
+      <c r="C357" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1">
+        <v>42191</v>
+      </c>
+      <c r="B358" t="s">
+        <v>48</v>
+      </c>
+      <c r="C358" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1">
+        <v>42191</v>
+      </c>
+      <c r="B359" t="s">
+        <v>44</v>
+      </c>
+      <c r="C359" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B360" t="s">
+        <v>290</v>
+      </c>
+      <c r="C360" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B361" t="s">
+        <v>291</v>
+      </c>
+      <c r="C361" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="1">
+        <v>42198</v>
+      </c>
+      <c r="B362" t="s">
+        <v>89</v>
+      </c>
+      <c r="C362" s="2">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B363" t="s">
+        <v>294</v>
+      </c>
+      <c r="D363" s="6">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B364" t="s">
+        <v>295</v>
+      </c>
+      <c r="D364" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B365" t="s">
+        <v>292</v>
+      </c>
+      <c r="D365" s="6">
+        <v>1172</v>
+      </c>
+      <c r="G365" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B366" t="s">
+        <v>293</v>
+      </c>
+      <c r="C366" s="2">
+        <v>110</v>
+      </c>
+      <c r="G366" s="5"/>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B367" t="s">
+        <v>297</v>
+      </c>
+      <c r="F367" s="6">
+        <v>500</v>
+      </c>
+      <c r="G367" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B368" t="s">
+        <v>296</v>
+      </c>
+      <c r="D368" s="6">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -9599,8 +10259,8 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9982,7 +10642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
